--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/Libraries/Library/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B719EB-F0E5-4BA4-A2DC-508FE3041CD7}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7821A3E0-929B-433A-8410-00C47BC414F2}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
-    <sheet name="Filter" sheetId="3" r:id="rId2"/>
-    <sheet name="Math" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Control system" sheetId="5" r:id="rId2"/>
+    <sheet name="Filter" sheetId="3" r:id="rId3"/>
+    <sheet name="Math" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>Control_sys</t>
   </si>
@@ -196,13 +197,121 @@
   </si>
   <si>
     <t>Linear algebra</t>
+  </si>
+  <si>
+    <t>D + LPF_1</t>
+  </si>
+  <si>
+    <t>PD + LPF_1</t>
+  </si>
+  <si>
+    <t>PID + LPF_1</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>LPF_1</t>
+  </si>
+  <si>
+    <t>LPF_2</t>
+  </si>
+  <si>
+    <t>HPF_1</t>
+  </si>
+  <si>
+    <t>HPF_2</t>
+  </si>
+  <si>
+    <t>BSF</t>
+  </si>
+  <si>
+    <t>BPF</t>
+  </si>
+  <si>
+    <t>HNF</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>QF_1</t>
+  </si>
+  <si>
+    <t>QF_2</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>System Identification</t>
+  </si>
+  <si>
+    <t>First order</t>
+  </si>
+  <si>
+    <t>First order with dead time</t>
+  </si>
+  <si>
+    <t>Second order</t>
+  </si>
+  <si>
+    <t>Second order with dead time</t>
+  </si>
+  <si>
+    <t>Nth order</t>
+  </si>
+  <si>
+    <t>Nth order with dead time</t>
+  </si>
+  <si>
+    <t>System type</t>
+  </si>
+  <si>
+    <t>SISO</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>SIMO</t>
+  </si>
+  <si>
+    <t>MIMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +334,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +369,30 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -262,12 +415,368 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -275,18 +784,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,7 +1200,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +1212,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -592,16 +1224,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -610,19 +1242,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -630,17 +1262,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -648,16 +1280,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -666,19 +1298,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -686,17 +1318,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -704,19 +1336,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -724,17 +1356,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -742,9 +1374,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -770,6 +1402,388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="40">
+        <v>1</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="46"/>
+      <c r="O3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="46"/>
+      <c r="O4" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="46"/>
+      <c r="O5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="6"/>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="5">
+        <v>9</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G12" s="5">
+        <v>12</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="7">
+        <v>13</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="N2:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD97391-339B-4313-8D6D-883D8A38F360}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -783,7 +1797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB061AE-55A5-4E7E-B1FB-948ACE22BB91}">
   <dimension ref="A1:L26"/>
   <sheetViews>
@@ -798,7 +1812,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -807,7 +1821,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -835,113 +1849,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -955,7 +1969,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -966,7 +1980,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -999,11 +2013,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1683BD35-68D1-40C8-810D-7B22B62F74CE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7821A3E0-929B-433A-8410-00C47BC414F2}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348F64FF-90ED-492B-8AA0-DFC4132E23E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,6 +845,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -866,52 +896,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1212,10 +1212,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1224,16 +1224,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1242,19 +1242,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1262,17 +1262,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1280,16 +1280,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1298,19 +1298,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1318,17 +1318,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1336,19 +1336,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1356,17 +1356,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1374,9 +1374,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
       <c r="M1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="35" t="s">
         <v>87</v>
       </c>
       <c r="O1" s="15" t="s">
@@ -1474,28 +1474,28 @@
         <v>8</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="35"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="12"/>
       <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="28" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="11"/>
       <c r="K2" s="12"/>
-      <c r="M2" s="40">
+      <c r="M2" s="31">
         <v>1</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="41"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32"/>
       <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1506,12 +1506,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="36"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="6"/>
       <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="29" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="18"/>
@@ -1520,8 +1520,8 @@
       <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="44"/>
+      <c r="O3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="P3" s="18"/>
@@ -1536,12 +1536,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="36"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="29" t="s">
         <v>67</v>
       </c>
       <c r="I4" s="18"/>
@@ -1550,8 +1550,8 @@
       <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="38" t="s">
+      <c r="N4" s="44"/>
+      <c r="O4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="P4" s="18"/>
@@ -1566,12 +1566,12 @@
         <v>56</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="36"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="6"/>
       <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="29" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="18"/>
@@ -1580,8 +1580,8 @@
       <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="38" t="s">
+      <c r="N5" s="44"/>
+      <c r="O5" s="29" t="s">
         <v>84</v>
       </c>
       <c r="P5" s="18"/>
@@ -1596,12 +1596,12 @@
         <v>4</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="6"/>
       <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="18"/>
@@ -1610,8 +1610,8 @@
       <c r="M6" s="5">
         <v>5</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="44"/>
+      <c r="O6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="P6" s="18"/>
@@ -1626,12 +1626,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="6"/>
       <c r="G7" s="5">
         <v>6</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="29" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="18"/>
@@ -1640,8 +1640,8 @@
       <c r="M7" s="7">
         <v>6</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="39" t="s">
+      <c r="N7" s="45"/>
+      <c r="O7" s="30" t="s">
         <v>86</v>
       </c>
       <c r="P7" s="19"/>
@@ -1656,12 +1656,12 @@
         <v>57</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="6"/>
       <c r="G8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="18"/>
@@ -1679,12 +1679,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="48"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="6"/>
       <c r="G9" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="29" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="18"/>
@@ -1702,12 +1702,12 @@
         <v>58</v>
       </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="9"/>
       <c r="G10" s="5">
         <v>9</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="29" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="18"/>
@@ -1721,7 +1721,7 @@
       <c r="G11" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="18"/>
@@ -1732,7 +1732,7 @@
       <c r="G12" s="5">
         <v>12</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="29" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="18"/>
@@ -1743,7 +1743,7 @@
       <c r="G13" s="7">
         <v>13</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="30" t="s">
         <v>79</v>
       </c>
       <c r="I13" s="19"/>
@@ -1752,24 +1752,24 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="25"/>
     </row>
   </sheetData>
@@ -1812,7 +1812,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1821,7 +1821,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1849,113 +1849,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="46" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1980,7 +1980,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348F64FF-90ED-492B-8AA0-DFC4132E23E6}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9CA5C6C-8CB2-4D1A-AAB1-F0C022CB8BE2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>Control_sys</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>MIMO</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Statistical parameters</t>
+  </si>
+  <si>
+    <t>Frequency domain</t>
+  </si>
+  <si>
+    <t>Time domain</t>
   </si>
 </sst>
 </file>
@@ -875,6 +887,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -910,9 +925,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1212,10 +1224,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1224,16 +1236,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1242,19 +1254,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1262,17 +1274,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1280,16 +1292,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1298,19 +1310,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1318,17 +1330,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1336,19 +1348,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1356,17 +1368,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1374,9 +1386,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1403,10 +1415,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,9 +1427,10 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
@@ -1465,8 +1479,23 @@
       <c r="R1" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1488,7 +1517,7 @@
       <c r="M2" s="31">
         <v>1</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="44" t="s">
         <v>88</v>
       </c>
       <c r="O2" s="34" t="s">
@@ -1497,8 +1526,17 @@
       <c r="P2" s="33"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2" s="10">
+        <v>1</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="17"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1520,15 +1558,24 @@
       <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="44"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="5">
+        <v>2</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1550,15 +1597,24 @@
       <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="44"/>
+      <c r="N4" s="45"/>
       <c r="O4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="5">
+        <v>3</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1580,7 +1636,7 @@
       <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="44"/>
+      <c r="N5" s="45"/>
       <c r="O5" s="29" t="s">
         <v>84</v>
       </c>
@@ -1588,7 +1644,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1610,7 +1666,7 @@
       <c r="M6" s="5">
         <v>5</v>
       </c>
-      <c r="N6" s="44"/>
+      <c r="N6" s="45"/>
       <c r="O6" s="29" t="s">
         <v>85</v>
       </c>
@@ -1618,7 +1674,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1640,7 +1696,7 @@
       <c r="M7" s="7">
         <v>6</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="30" t="s">
         <v>86</v>
       </c>
@@ -1648,7 +1704,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1671,7 +1727,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1694,7 +1750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1702,7 +1758,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="48"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="9"/>
       <c r="G10" s="5">
         <v>9</v>
@@ -1717,7 +1773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G11" s="5">
         <v>10</v>
       </c>
@@ -1728,7 +1784,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G12" s="5">
         <v>12</v>
       </c>
@@ -1739,7 +1795,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="7">
         <v>13</v>
       </c>
@@ -1750,26 +1806,26 @@
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="25"/>
     </row>
   </sheetData>
@@ -1812,7 +1868,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1821,7 +1877,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1849,113 +1905,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="47"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -1969,7 +2025,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1980,7 +2036,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9CA5C6C-8CB2-4D1A-AAB1-F0C022CB8BE2}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26432A7C-9C29-47B9-BD52-856B66A05976}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>Control_sys</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Time domain</t>
+  </si>
+  <si>
+    <t>Lag (cross correlation)</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,6 +1646,15 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="6"/>
+      <c r="T5" s="5">
+        <v>4</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="5">

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26432A7C-9C29-47B9-BD52-856B66A05976}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50627FDA-DEDC-4DE7-83CC-81079429B3DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
   <si>
     <t>Control_sys</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Lag (cross correlation)</t>
+  </si>
+  <si>
+    <t>PID + LPF_1 + FF</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -782,6 +785,43 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -791,7 +831,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -848,7 +888,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -860,9 +899,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,6 +965,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1227,10 +1279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1239,16 +1291,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1257,19 +1309,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1277,17 +1329,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1295,16 +1347,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1313,19 +1365,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1333,17 +1385,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1351,19 +1403,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1371,17 +1423,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1389,9 +1441,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1422,31 +1474,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="49" t="s">
         <v>63</v>
       </c>
       <c r="G1" s="13" t="s">
@@ -1467,7 +1519,7 @@
       <c r="M1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>87</v>
       </c>
       <c r="O1" s="15" t="s">
@@ -1499,40 +1551,40 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="22"/>
       <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="26" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="11"/>
       <c r="K2" s="12"/>
-      <c r="M2" s="31">
+      <c r="M2" s="29">
         <v>1</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="23"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="22"/>
       <c r="T2" s="10">
         <v>1</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="26" t="s">
         <v>93</v>
       </c>
       <c r="V2" s="17"/>
@@ -1543,16 +1595,16 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6"/>
       <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="27" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="18"/>
@@ -1561,8 +1613,8 @@
       <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="29" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="27" t="s">
         <v>82</v>
       </c>
       <c r="P3" s="18"/>
@@ -1571,7 +1623,7 @@
       <c r="T3" s="5">
         <v>2</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="27" t="s">
         <v>94</v>
       </c>
       <c r="V3" s="18"/>
@@ -1582,16 +1634,16 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>67</v>
       </c>
       <c r="I4" s="18"/>
@@ -1600,8 +1652,8 @@
       <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="29" t="s">
+      <c r="N4" s="43"/>
+      <c r="O4" s="27" t="s">
         <v>83</v>
       </c>
       <c r="P4" s="18"/>
@@ -1610,7 +1662,7 @@
       <c r="T4" s="5">
         <v>3</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="U4" s="27" t="s">
         <v>95</v>
       </c>
       <c r="V4" s="18"/>
@@ -1621,16 +1673,16 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="27"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="6"/>
       <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="18"/>
@@ -1639,8 +1691,8 @@
       <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="43"/>
+      <c r="O5" s="27" t="s">
         <v>84</v>
       </c>
       <c r="P5" s="18"/>
@@ -1649,7 +1701,7 @@
       <c r="T5" s="5">
         <v>4</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="27" t="s">
         <v>96</v>
       </c>
       <c r="V5" s="18"/>
@@ -1660,16 +1712,16 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="6"/>
       <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="18"/>
@@ -1678,8 +1730,8 @@
       <c r="M6" s="5">
         <v>5</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="29" t="s">
+      <c r="N6" s="43"/>
+      <c r="O6" s="27" t="s">
         <v>85</v>
       </c>
       <c r="P6" s="18"/>
@@ -1690,16 +1742,16 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="6"/>
       <c r="G7" s="5">
         <v>6</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="18"/>
@@ -1708,8 +1760,8 @@
       <c r="M7" s="7">
         <v>6</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="30" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="28" t="s">
         <v>86</v>
       </c>
       <c r="P7" s="19"/>
@@ -1720,16 +1772,16 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="6"/>
       <c r="G8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="18"/>
@@ -1743,16 +1795,16 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="6"/>
       <c r="G9" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>72</v>
       </c>
       <c r="I9" s="18"/>
@@ -1762,20 +1814,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="6"/>
       <c r="G10" s="5">
         <v>9</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="18"/>
@@ -1785,11 +1837,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="9"/>
       <c r="G11" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="27" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="18"/>
@@ -1800,7 +1861,7 @@
       <c r="G12" s="5">
         <v>12</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="18"/>
@@ -1811,7 +1872,7 @@
       <c r="G13" s="7">
         <v>13</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>79</v>
       </c>
       <c r="I13" s="19"/>
@@ -1820,25 +1881,25 @@
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1880,7 +1941,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1889,7 +1950,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1917,113 +1978,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2037,7 +2098,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2048,7 +2109,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50627FDA-DEDC-4DE7-83CC-81079429B3DA}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF06686-47B7-4D21-AC01-4BD7C4BE2BEF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>Control_sys</t>
   </si>
@@ -323,13 +323,28 @@
   </si>
   <si>
     <t>PID + LPF_1 + FF</t>
+  </si>
+  <si>
+    <t>PID_S</t>
+  </si>
+  <si>
+    <t>PID_P</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Equation Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +389,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -410,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -822,6 +843,45 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -831,7 +891,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -926,9 +986,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -965,22 +1038,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1279,10 +1345,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1291,16 +1357,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1309,19 +1375,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1329,17 +1395,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1347,16 +1413,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1365,19 +1431,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1385,17 +1451,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1403,19 +1469,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1423,17 +1489,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1441,9 +1507,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1470,128 +1536,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="50"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="10">
+      <c r="F2" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="M2" s="29">
+      <c r="J2" s="17"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="29">
         <v>1</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="O2" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="P2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="22"/>
-      <c r="T2" s="10">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="22"/>
+      <c r="U2" s="10">
         <v>1</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W2" s="17"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1601,36 +1674,39 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="5">
+      <c r="F3" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6"/>
-      <c r="M3" s="5">
+      <c r="J3" s="18"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="N3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="48"/>
+      <c r="P3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="6"/>
-      <c r="T3" s="5">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="6"/>
+      <c r="U3" s="5">
         <v>2</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="V3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="6"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W3" s="18"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1640,36 +1716,39 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="5">
+      <c r="F4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6"/>
-      <c r="M4" s="5">
+      <c r="J4" s="18"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+      <c r="N4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="48"/>
+      <c r="P4" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="6"/>
-      <c r="T4" s="5">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="6"/>
+      <c r="U4" s="5">
         <v>3</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="V4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W4" s="18"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1679,36 +1758,39 @@
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="5">
+      <c r="F5" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
-      <c r="M5" s="5">
+      <c r="J5" s="18"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="N5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="48"/>
+      <c r="P5" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="6"/>
-      <c r="T5" s="5">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="6"/>
+      <c r="U5" s="5">
         <v>4</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="V5" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="6"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W5" s="18"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1718,27 +1800,30 @@
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="5">
+      <c r="F6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="M6" s="5">
+      <c r="J6" s="18"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="5">
         <v>5</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="48"/>
+      <c r="P6" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1748,27 +1833,30 @@
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
       <c r="E7" s="6"/>
-      <c r="G7" s="5">
+      <c r="F7" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="5">
         <v>6</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="M7" s="7">
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="7">
         <v>6</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="49"/>
+      <c r="P7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1778,20 +1866,23 @@
       <c r="C8" s="18"/>
       <c r="D8" s="25"/>
       <c r="E8" s="6"/>
-      <c r="G8" s="5">
+      <c r="F8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="N8" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="O8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1801,20 +1892,23 @@
       <c r="C9" s="18"/>
       <c r="D9" s="25"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="5">
+      <c r="F9" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="I9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="N9" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="O9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1824,89 +1918,133 @@
       <c r="C10" s="18"/>
       <c r="D10" s="25"/>
       <c r="E10" s="6"/>
-      <c r="G10" s="5">
+      <c r="F10" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="5">
         <v>9</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-      <c r="N10" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
+      <c r="O10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="5">
+      <c r="C11" s="18"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I13" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G12" s="5">
+      <c r="J13" s="18"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H14" s="5">
         <v>12</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="7">
+      <c r="J14" s="18"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="7">
         <v>13</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="I15" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="J15" s="19"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="40" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="24"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="O2:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1941,7 +2079,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1950,7 +2088,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1978,113 +2116,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="50" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2098,7 +2236,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2109,7 +2247,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF06686-47B7-4D21-AC01-4BD7C4BE2BEF}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A8F2D9-4417-42BA-B08D-51E4908E946A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>Control_sys</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Equation Type</t>
+  </si>
+  <si>
+    <t>PID_GS</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -843,45 +846,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -891,7 +855,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1038,13 +1002,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1540,7 +1507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,10 +1532,10 @@
       <c r="D1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="36" t="s">
         <v>102</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -1629,8 +1596,8 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="52" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="54" t="s">
         <v>100</v>
       </c>
       <c r="H2" s="10">
@@ -1673,7 +1640,7 @@
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="52" t="s">
         <v>100</v>
       </c>
@@ -1715,7 +1682,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="52" t="s">
         <v>100</v>
       </c>
@@ -1757,7 +1724,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="52" t="s">
         <v>100</v>
       </c>
@@ -1799,7 +1766,7 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="52" t="s">
         <v>100</v>
       </c>
@@ -1832,7 +1799,7 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="52" t="s">
         <v>100</v>
       </c>
@@ -1865,7 +1832,7 @@
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="52" t="s">
         <v>100</v>
       </c>
@@ -1891,7 +1858,7 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="52" t="s">
         <v>100</v>
       </c>
@@ -1917,7 +1884,7 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="52" t="s">
         <v>100</v>
       </c>
@@ -1943,7 +1910,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="52" t="s">
         <v>100</v>
       </c>
@@ -1958,13 +1925,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="27"/>
@@ -1972,18 +1939,18 @@
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="53" t="s">
-        <v>101</v>
+      <c r="B13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="H13" s="5">
         <v>10</v>
@@ -1995,7 +1962,19 @@
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="H14" s="5">
         <v>12</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A8F2D9-4417-42BA-B08D-51E4908E946A}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A723073-8939-4829-ABF1-A738FE28E1DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,6 +966,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1001,18 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1312,10 +1312,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1324,16 +1324,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1342,19 +1342,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1362,17 +1362,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1380,16 +1380,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1398,19 +1398,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1418,17 +1418,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1436,19 +1436,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1456,17 +1456,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1474,9 +1474,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1597,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="37"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="42" t="s">
         <v>100</v>
       </c>
       <c r="H2" s="10">
@@ -1612,7 +1612,7 @@
       <c r="N2" s="29">
         <v>1</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="51" t="s">
         <v>88</v>
       </c>
       <c r="P2" s="32" t="s">
@@ -1641,7 +1641,7 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H3" s="5">
@@ -1656,7 +1656,7 @@
       <c r="N3" s="5">
         <v>2</v>
       </c>
-      <c r="O3" s="48"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="27" t="s">
         <v>82</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H4" s="5">
@@ -1698,7 +1698,7 @@
       <c r="N4" s="5">
         <v>3</v>
       </c>
-      <c r="O4" s="48"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="27" t="s">
         <v>83</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="5">
@@ -1740,7 +1740,7 @@
       <c r="N5" s="5">
         <v>4</v>
       </c>
-      <c r="O5" s="48"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="27" t="s">
         <v>84</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H6" s="5">
@@ -1782,7 +1782,7 @@
       <c r="N6" s="5">
         <v>5</v>
       </c>
-      <c r="O6" s="48"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="27" t="s">
         <v>85</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="5">
@@ -1815,7 +1815,7 @@
       <c r="N7" s="7">
         <v>6</v>
       </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="28" t="s">
         <v>86</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="C8" s="18"/>
       <c r="D8" s="25"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="5">
@@ -1859,7 +1859,7 @@
       <c r="C9" s="18"/>
       <c r="D9" s="25"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="5">
@@ -1885,7 +1885,7 @@
       <c r="C10" s="18"/>
       <c r="D10" s="25"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H10" s="5">
@@ -1911,7 +1911,7 @@
       <c r="C11" s="18"/>
       <c r="D11" s="25"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H11" s="5"/>
@@ -1928,9 +1928,9 @@
         <v>98</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="40" t="s">
         <v>101</v>
       </c>
       <c r="H12" s="5"/>
@@ -1947,9 +1947,9 @@
         <v>99</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="5">
@@ -1972,7 +1972,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="41" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="5">
@@ -1998,24 +1998,24 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="24"/>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2067,7 +2067,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2095,113 +2095,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="51"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A723073-8939-4829-ABF1-A738FE28E1DD}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87DEF3B-2795-4FB8-90A0-8A77B8FC3BED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,9 +975,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1013,6 +1010,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1312,10 +1312,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1324,16 +1324,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1342,19 +1342,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1362,17 +1362,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1380,16 +1380,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1398,19 +1398,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1418,17 +1418,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1436,19 +1436,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1456,17 +1456,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1474,9 +1474,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1612,7 @@
       <c r="N2" s="29">
         <v>1</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="50" t="s">
         <v>88</v>
       </c>
       <c r="P2" s="32" t="s">
@@ -1656,7 +1656,7 @@
       <c r="N3" s="5">
         <v>2</v>
       </c>
-      <c r="O3" s="52"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="27" t="s">
         <v>82</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="N4" s="5">
         <v>3</v>
       </c>
-      <c r="O4" s="52"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="27" t="s">
         <v>83</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="N5" s="5">
         <v>4</v>
       </c>
-      <c r="O5" s="52"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="27" t="s">
         <v>84</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="N6" s="5">
         <v>5</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="27" t="s">
         <v>85</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="N7" s="7">
         <v>6</v>
       </c>
-      <c r="O7" s="53"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="28" t="s">
         <v>86</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>98</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
       <c r="F12" s="40" t="s">
         <v>101</v>
@@ -1970,7 +1970,7 @@
         <v>103</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="8"/>
       <c r="F14" s="41" t="s">
         <v>100</v>
@@ -1998,24 +1998,24 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="24"/>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2067,7 +2067,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2095,113 +2095,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87DEF3B-2795-4FB8-90A0-8A77B8FC3BED}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318EC673-4DBA-4A45-84C8-2DA5902EC627}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,7 +1011,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1507,7 +1507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,8 +1914,12 @@
       <c r="F11" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="27"/>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
@@ -1933,13 +1937,17 @@
       <c r="F12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="5">
+        <v>12</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1952,15 +1960,15 @@
       <c r="F13" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="5">
-        <v>10</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6"/>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -1975,26 +1983,6 @@
       <c r="F14" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="5">
-        <v>12</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="7">
-        <v>13</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="432" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318EC673-4DBA-4A45-84C8-2DA5902EC627}"/>
+  <xr:revisionPtr revIDLastSave="481" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D122E49-6D6C-439E-A48C-CA93719C2593}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>Control_sys</t>
   </si>
@@ -341,6 +341,36 @@
   </si>
   <si>
     <t>PID_GS</t>
+  </si>
+  <si>
+    <t>Periodic system</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>EKF</t>
+  </si>
+  <si>
+    <t>UKF</t>
+  </si>
+  <si>
+    <t>SKF</t>
+  </si>
+  <si>
+    <t>FLC</t>
+  </si>
+  <si>
+    <t>WFLC</t>
+  </si>
+  <si>
+    <t>BMFLC</t>
   </si>
 </sst>
 </file>
@@ -434,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -777,24 +807,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -802,50 +823,37 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -855,7 +863,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -944,25 +952,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -975,6 +977,32 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -996,14 +1024,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1011,8 +1036,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1312,10 +1340,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1324,16 +1352,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1342,19 +1370,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1362,17 +1390,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1380,16 +1408,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1398,19 +1426,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1418,17 +1446,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1436,19 +1464,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1456,17 +1484,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1474,9 +1502,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,11 +1531,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,25 +1545,26 @@
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>102</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -1556,13 +1585,13 @@
       <c r="N1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="R1" s="14" t="s">
@@ -1586,41 +1615,56 @@
       <c r="Y1" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="37"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="29">
         <v>1</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="29">
+      <c r="J2" s="31"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="22"/>
+      <c r="N2" s="49">
         <v>1</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="22"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="12"/>
       <c r="U2" s="10">
         <v>1</v>
       </c>
@@ -1630,8 +1674,17 @@
       <c r="W2" s="17"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="12"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="12"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1641,7 +1694,7 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H3" s="5">
@@ -1651,16 +1704,16 @@
         <v>66</v>
       </c>
       <c r="J3" s="18"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="6"/>
-      <c r="N3" s="5">
+      <c r="N3" s="42">
         <v>2</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="27" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="6"/>
       <c r="U3" s="5">
@@ -1672,8 +1725,17 @@
       <c r="W3" s="18"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1683,7 +1745,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H4" s="5">
@@ -1693,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="J4" s="18"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="6"/>
-      <c r="N4" s="5">
+      <c r="N4" s="42">
         <v>3</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="59"/>
+      <c r="P4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="6"/>
       <c r="U4" s="5">
@@ -1714,8 +1776,17 @@
       <c r="W4" s="18"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1725,7 +1796,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="5">
@@ -1737,14 +1808,14 @@
       <c r="J5" s="18"/>
       <c r="K5" s="4"/>
       <c r="L5" s="6"/>
-      <c r="N5" s="5">
+      <c r="N5" s="42">
         <v>4</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="27" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="6"/>
       <c r="U5" s="5">
@@ -1756,8 +1827,17 @@
       <c r="W5" s="18"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1767,7 +1847,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H6" s="5">
@@ -1779,18 +1859,27 @@
       <c r="J6" s="18"/>
       <c r="K6" s="4"/>
       <c r="L6" s="6"/>
-      <c r="N6" s="5">
+      <c r="N6" s="42">
         <v>5</v>
       </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="9"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1800,7 +1889,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="5">
@@ -1812,18 +1901,18 @@
       <c r="J7" s="18"/>
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
-      <c r="N7" s="7">
+      <c r="N7" s="42">
         <v>6</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="28" t="s">
+      <c r="O7" s="59"/>
+      <c r="P7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1833,7 +1922,7 @@
       <c r="C8" s="18"/>
       <c r="D8" s="25"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="5">
@@ -1845,11 +1934,18 @@
       <c r="J8" s="18"/>
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
-      <c r="O8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N8" s="42">
+        <v>7</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1859,7 +1955,7 @@
       <c r="C9" s="18"/>
       <c r="D9" s="25"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="5">
@@ -1871,11 +1967,18 @@
       <c r="J9" s="18"/>
       <c r="K9" s="4"/>
       <c r="L9" s="6"/>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N9" s="42">
+        <v>8</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1885,7 +1988,7 @@
       <c r="C10" s="18"/>
       <c r="D10" s="25"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H10" s="5">
@@ -1897,11 +2000,18 @@
       <c r="J10" s="18"/>
       <c r="K10" s="4"/>
       <c r="L10" s="6"/>
-      <c r="O10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N10" s="42">
+        <v>9</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1911,7 +2021,7 @@
       <c r="C11" s="18"/>
       <c r="D11" s="25"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>100</v>
       </c>
       <c r="H11" s="5">
@@ -1923,8 +2033,18 @@
       <c r="J11" s="18"/>
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N11" s="46">
+        <v>10</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1934,11 +2054,11 @@
       <c r="C12" s="18"/>
       <c r="D12" s="25"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="38" t="s">
         <v>101</v>
       </c>
       <c r="H12" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>78</v>
@@ -1947,7 +2067,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1957,20 +2077,20 @@
       <c r="C13" s="18"/>
       <c r="D13" s="25"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="5">
+        <v>12</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="18"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1978,32 +2098,63 @@
         <v>103</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="39" t="s">
         <v>100</v>
       </c>
+      <c r="H14" s="5">
+        <v>13</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H15" s="5">
+        <v>14</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="24"/>
     </row>
   </sheetData>
@@ -2011,7 +2162,7 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="O2:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2046,7 +2197,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2055,7 +2206,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2083,113 +2234,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2203,7 +2354,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2214,7 +2365,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D122E49-6D6C-439E-A48C-CA93719C2593}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF74833E-8CC1-43AC-84E0-7BEB19A904F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
   <si>
     <t>Control_sys</t>
   </si>
@@ -371,6 +371,36 @@
   </si>
   <si>
     <t>BMFLC</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>Const_math</t>
+  </si>
+  <si>
+    <t>Const_unit</t>
+  </si>
+  <si>
+    <t>Const_data_type</t>
+  </si>
+  <si>
+    <t>Const_atm_earth</t>
+  </si>
+  <si>
+    <t>Const_geo_earth</t>
+  </si>
+  <si>
+    <t>Const_geo_moon</t>
+  </si>
+  <si>
+    <t>Const_atm_moon</t>
+  </si>
+  <si>
+    <t>Const_geo_sun</t>
+  </si>
+  <si>
+    <t>Const_atm_sun</t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1033,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1035,12 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1340,10 +1370,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1352,16 +1382,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1370,19 +1400,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1390,17 +1420,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1408,16 +1438,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1426,19 +1456,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1446,17 +1476,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1464,19 +1494,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="53" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1484,17 +1514,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1502,9 +1532,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,11 +1574,12 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
@@ -1600,11 +1631,12 @@
       <c r="S1" s="15" t="s">
         <v>63</v>
       </c>
+      <c r="T1"/>
       <c r="U1" s="13" t="s">
         <v>59</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="W1" s="16" t="s">
         <v>61</v>
@@ -1615,23 +1647,42 @@
       <c r="Y1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AE1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1647,7 +1698,7 @@
       <c r="H2" s="29">
         <v>1</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="51" t="s">
         <v>65</v>
       </c>
       <c r="J2" s="31"/>
@@ -1656,7 +1707,7 @@
       <c r="N2" s="49">
         <v>1</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="60" t="s">
         <v>88</v>
       </c>
       <c r="P2" s="50" t="s">
@@ -1665,26 +1716,35 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="12"/>
-      <c r="U2" s="10">
+      <c r="U2" s="29">
         <v>1</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="22"/>
+      <c r="AE2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12"/>
-      <c r="AA2" s="10">
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="12"/>
+      <c r="AK2" s="10">
         <v>1</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AL2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="12"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="12"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1709,7 +1769,7 @@
       <c r="N3" s="42">
         <v>2</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="61"/>
       <c r="P3" s="44" t="s">
         <v>82</v>
       </c>
@@ -1720,22 +1780,31 @@
         <v>2</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="W3" s="18"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="6"/>
-      <c r="AA3" s="5">
+      <c r="AE3" s="5">
         <v>2</v>
       </c>
-      <c r="AB3" s="27" t="s">
+      <c r="AF3" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="6"/>
+      <c r="AK3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="6"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1760,7 +1829,7 @@
       <c r="N4" s="42">
         <v>3</v>
       </c>
-      <c r="O4" s="59"/>
+      <c r="O4" s="61"/>
       <c r="P4" s="44" t="s">
         <v>83</v>
       </c>
@@ -1771,22 +1840,31 @@
         <v>3</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="6"/>
-      <c r="AA4" s="5">
+      <c r="AE4" s="5">
         <v>3</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AF4" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="6"/>
+      <c r="AK4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="6"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="6"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1811,7 +1889,7 @@
       <c r="N5" s="42">
         <v>4</v>
       </c>
-      <c r="O5" s="59"/>
+      <c r="O5" s="61"/>
       <c r="P5" s="44" t="s">
         <v>84</v>
       </c>
@@ -1822,22 +1900,31 @@
         <v>4</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="W5" s="18"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="6"/>
-      <c r="AA5" s="5">
+      <c r="AE5" s="5">
         <v>4</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AF5" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="6"/>
-    </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="6"/>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1862,24 +1949,33 @@
       <c r="N6" s="42">
         <v>5</v>
       </c>
-      <c r="O6" s="59"/>
+      <c r="O6" s="61"/>
       <c r="P6" s="44" t="s">
         <v>85</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="6"/>
-      <c r="AA6" s="7">
+      <c r="U6" s="5">
         <v>5</v>
       </c>
-      <c r="AB6" s="28" t="s">
+      <c r="V6" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="W6" s="18"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="6"/>
+      <c r="AK6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="9"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="9"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1904,15 +2000,24 @@
       <c r="N7" s="42">
         <v>6</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="44" t="s">
         <v>86</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U7" s="5">
+        <v>6</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" s="18"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1937,15 +2042,24 @@
       <c r="N8" s="42">
         <v>7</v>
       </c>
-      <c r="O8" s="59"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="44" t="s">
         <v>104</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U8" s="5">
+        <v>7</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="18"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1977,8 +2091,17 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U9" s="5">
+        <v>8</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2010,8 +2133,17 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="7">
+        <v>9</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="W10" s="19"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2044,7 +2176,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2067,7 +2199,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2090,7 +2222,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2113,7 +2245,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H15" s="5">
         <v>14</v>
       </c>
@@ -2124,11 +2256,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="52" t="s">
         <v>113</v>
       </c>
       <c r="J16" s="19"/>
@@ -2137,24 +2269,24 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="24"/>
     </row>
   </sheetData>
@@ -2197,7 +2329,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2206,7 +2338,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2234,113 +2366,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="61"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2354,7 +2486,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2365,7 +2497,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF74833E-8CC1-43AC-84E0-7BEB19A904F1}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7FE7722-BE20-4386-B3D0-9F926AD04000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,11 +1575,11 @@
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
@@ -1647,42 +1647,38 @@
       <c r="Y1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1725,26 +1721,26 @@
       <c r="W2" s="31"/>
       <c r="X2" s="30"/>
       <c r="Y2" s="22"/>
-      <c r="AE2" s="10">
+      <c r="AA2" s="10">
         <v>1</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AB2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="12"/>
-      <c r="AK2" s="10">
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="12"/>
+      <c r="AG2" s="10">
         <v>1</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AH2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="12"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="12"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1785,26 +1781,26 @@
       <c r="W3" s="18"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="6"/>
-      <c r="AE3" s="5">
+      <c r="AA3" s="5">
         <v>2</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AB3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="6"/>
-      <c r="AK3" s="5">
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="6"/>
+      <c r="AG3" s="5">
         <v>2</v>
       </c>
-      <c r="AL3" s="27" t="s">
+      <c r="AH3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="6"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="6"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1845,26 +1841,26 @@
       <c r="W4" s="18"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="6"/>
-      <c r="AE4" s="5">
+      <c r="AA4" s="5">
         <v>3</v>
       </c>
-      <c r="AF4" s="27" t="s">
+      <c r="AB4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="6"/>
-      <c r="AK4" s="5">
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="6"/>
+      <c r="AG4" s="5">
         <v>3</v>
       </c>
-      <c r="AL4" s="27" t="s">
+      <c r="AH4" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="6"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="6"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1905,26 +1901,26 @@
       <c r="W5" s="18"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="6"/>
-      <c r="AE5" s="5">
+      <c r="AA5" s="5">
         <v>4</v>
       </c>
-      <c r="AF5" s="27" t="s">
+      <c r="AB5" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" s="5">
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="6"/>
+      <c r="AG5" s="5">
         <v>4</v>
       </c>
-      <c r="AL5" s="27" t="s">
+      <c r="AH5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="6"/>
-    </row>
-    <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="6"/>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1965,17 +1961,17 @@
       <c r="W6" s="18"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="6"/>
-      <c r="AK6" s="7">
+      <c r="AG6" s="7">
         <v>5</v>
       </c>
-      <c r="AL6" s="28" t="s">
+      <c r="AH6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="9"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="9"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2017,7 +2013,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2059,7 +2055,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2101,7 +2097,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2143,7 +2139,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2176,7 +2172,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2199,7 +2195,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2222,7 +2218,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2245,7 +2241,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="H15" s="5">
         <v>14</v>
       </c>
@@ -2256,7 +2252,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="7">
         <v>15</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7FE7722-BE20-4386-B3D0-9F926AD04000}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83662520-0F6F-4BAA-A9F4-8EB015F6B0D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,9 +247,6 @@
     <t>HNF</t>
   </si>
   <si>
-    <t>SRF</t>
-  </si>
-  <si>
     <t>QF_1</t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>Const_atm_sun</t>
+  </si>
+  <si>
+    <t>SRL</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -893,7 +899,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1071,6 +1077,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1563,9 +1575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1608,7 @@
         <v>63</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>59</v>
@@ -1617,10 +1629,10 @@
         <v>59</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>61</v>
@@ -1636,7 +1648,7 @@
         <v>59</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W1" s="16" t="s">
         <v>61</v>
@@ -1651,7 +1663,7 @@
         <v>59</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC1" s="16" t="s">
         <v>61</v>
@@ -1666,7 +1678,7 @@
         <v>59</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI1" s="16" t="s">
         <v>61</v>
@@ -1689,7 +1701,7 @@
       <c r="D2" s="35"/>
       <c r="E2" s="30"/>
       <c r="F2" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="29">
         <v>1</v>
@@ -1704,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -1716,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="30"/>
@@ -1725,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="AB2" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC2" s="17"/>
       <c r="AD2" s="11"/>
@@ -1734,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="AH2" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI2" s="17"/>
       <c r="AJ2" s="11"/>
@@ -1751,7 +1763,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="4"/>
       <c r="F3" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
@@ -1767,7 +1779,7 @@
       </c>
       <c r="O3" s="61"/>
       <c r="P3" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1776,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W3" s="18"/>
       <c r="X3" s="4"/>
@@ -1785,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC3" s="18"/>
       <c r="AD3" s="4"/>
@@ -1794,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI3" s="18"/>
       <c r="AJ3" s="4"/>
@@ -1811,7 +1823,7 @@
       <c r="D4" s="25"/>
       <c r="E4" s="4"/>
       <c r="F4" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="5">
         <v>3</v>
@@ -1827,7 +1839,7 @@
       </c>
       <c r="O4" s="61"/>
       <c r="P4" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1836,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W4" s="18"/>
       <c r="X4" s="4"/>
@@ -1845,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="4"/>
@@ -1854,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="AH4" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="4"/>
@@ -1871,7 +1883,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="4"/>
       <c r="F5" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="5">
         <v>4</v>
@@ -1887,7 +1899,7 @@
       </c>
       <c r="O5" s="61"/>
       <c r="P5" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1896,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W5" s="18"/>
       <c r="X5" s="4"/>
@@ -1905,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC5" s="18"/>
       <c r="AD5" s="4"/>
@@ -1914,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="AH5" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="4"/>
@@ -1931,7 +1943,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="4"/>
       <c r="F6" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="5">
         <v>5</v>
@@ -1947,7 +1959,7 @@
       </c>
       <c r="O6" s="61"/>
       <c r="P6" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1956,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="4"/>
@@ -1965,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="AH6" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="8"/>
@@ -1982,7 +1994,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="4"/>
       <c r="F7" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="5">
         <v>6</v>
@@ -1998,7 +2010,7 @@
       </c>
       <c r="O7" s="61"/>
       <c r="P7" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2007,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="V7" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W7" s="18"/>
       <c r="X7" s="4"/>
@@ -2024,13 +2036,13 @@
       <c r="D8" s="25"/>
       <c r="E8" s="4"/>
       <c r="F8" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="5">
         <v>7</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="4"/>
@@ -2040,7 +2052,7 @@
       </c>
       <c r="O8" s="61"/>
       <c r="P8" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2049,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W8" s="18"/>
       <c r="X8" s="4"/>
@@ -2066,13 +2078,13 @@
       <c r="D9" s="25"/>
       <c r="E9" s="4"/>
       <c r="F9" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="5">
         <v>8</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="4"/>
@@ -2081,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" s="43"/>
       <c r="Q9" s="4"/>
@@ -2091,7 +2103,7 @@
         <v>8</v>
       </c>
       <c r="V9" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W9" s="18"/>
       <c r="X9" s="4"/>
@@ -2108,22 +2120,22 @@
       <c r="D10" s="25"/>
       <c r="E10" s="4"/>
       <c r="F10" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="5">
         <v>9</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="J10" s="18"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="6"/>
       <c r="N10" s="42">
         <v>9</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P10" s="43"/>
       <c r="Q10" s="4"/>
@@ -2133,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W10" s="19"/>
       <c r="X10" s="8"/>
@@ -2144,19 +2156,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="25"/>
       <c r="E11" s="4"/>
       <c r="F11" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="4"/>
@@ -2165,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P11" s="48"/>
       <c r="Q11" s="8"/>
@@ -2177,19 +2189,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="25"/>
       <c r="E12" s="4"/>
       <c r="F12" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="5">
         <v>11</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="4"/>
@@ -2200,22 +2212,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="25"/>
       <c r="E13" s="4"/>
       <c r="F13" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="5">
         <v>12</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J13" s="18"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,22 +2235,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="41"/>
       <c r="E14" s="8"/>
       <c r="F14" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="5">
         <v>13</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J14" s="18"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -2246,10 +2258,10 @@
         <v>14</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J15" s="18"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2257,30 +2269,30 @@
         <v>15</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16" s="19"/>
-      <c r="K16" s="8"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="24"/>
@@ -2293,6 +2305,7 @@
     <mergeCell ref="O2:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83662520-0F6F-4BAA-A9F4-8EB015F6B0D8}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1728C7DD-785B-4513-B269-DFFFA3997FCF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,6 +1045,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1077,12 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1382,10 +1382,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1394,16 +1394,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1412,19 +1412,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="55" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1432,17 +1432,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1450,16 +1450,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1468,19 +1468,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="55" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1488,17 +1488,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1506,19 +1506,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1526,17 +1526,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1544,9 +1544,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1577,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1715,7 @@
       <c r="N2" s="49">
         <v>1</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="62" t="s">
         <v>87</v>
       </c>
       <c r="P2" s="50" t="s">
@@ -1731,7 +1731,7 @@
         <v>114</v>
       </c>
       <c r="W2" s="31"/>
-      <c r="X2" s="30"/>
+      <c r="X2" s="35"/>
       <c r="Y2" s="22"/>
       <c r="AA2" s="10">
         <v>1</v>
@@ -1777,7 +1777,7 @@
       <c r="N3" s="42">
         <v>2</v>
       </c>
-      <c r="O3" s="61"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="44" t="s">
         <v>81</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="N4" s="42">
         <v>3</v>
       </c>
-      <c r="O4" s="61"/>
+      <c r="O4" s="63"/>
       <c r="P4" s="44" t="s">
         <v>82</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>116</v>
       </c>
       <c r="W4" s="18"/>
-      <c r="X4" s="4"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="6"/>
       <c r="AA4" s="5">
         <v>3</v>
@@ -1892,12 +1892,12 @@
         <v>68</v>
       </c>
       <c r="J5" s="18"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="6"/>
       <c r="N5" s="42">
         <v>4</v>
       </c>
-      <c r="O5" s="61"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="44" t="s">
         <v>83</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="N6" s="42">
         <v>5</v>
       </c>
-      <c r="O6" s="61"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="44" t="s">
         <v>84</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="N7" s="42">
         <v>6</v>
       </c>
-      <c r="O7" s="61"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="44" t="s">
         <v>85</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="N8" s="42">
         <v>7</v>
       </c>
-      <c r="O8" s="61"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="44" t="s">
         <v>103</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="18"/>
-      <c r="K13" s="64"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2250,7 +2250,7 @@
         <v>110</v>
       </c>
       <c r="J14" s="18"/>
-      <c r="K14" s="64"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>111</v>
       </c>
       <c r="J15" s="18"/>
-      <c r="K15" s="64"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2272,29 +2272,29 @@
         <v>112</v>
       </c>
       <c r="J16" s="19"/>
-      <c r="K16" s="65"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="24"/>
     </row>
   </sheetData>
@@ -2338,7 +2338,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2347,7 +2347,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2375,113 +2375,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2506,7 +2506,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1728C7DD-785B-4513-B269-DFFFA3997FCF}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F49195D-4598-4E77-BBAC-D941C60ECF2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t>Control_sys</t>
   </si>
@@ -401,6 +401,27 @@
   </si>
   <si>
     <t>SRL</t>
+  </si>
+  <si>
+    <t>Mobile Robot</t>
+  </si>
+  <si>
+    <t>D_drive_unicycle</t>
+  </si>
+  <si>
+    <t>Wheel_odom_d_drive</t>
+  </si>
+  <si>
+    <t>Ackarman_unicycle</t>
+  </si>
+  <si>
+    <t>Wheel_odom_ackarman</t>
+  </si>
+  <si>
+    <t>Wheel_odom_bicycle</t>
+  </si>
+  <si>
+    <t>Bicycle_unicycle</t>
   </si>
 </sst>
 </file>
@@ -899,7 +920,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1083,6 +1104,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1573,11 +1597,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,9 +1613,10 @@
     <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
@@ -1689,8 +1714,23 @@
       <c r="AK1" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1751,8 +1791,17 @@
       <c r="AI2" s="17"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="12"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="12"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1811,8 +1860,17 @@
       <c r="AI3" s="18"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="6"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="6"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1871,8 +1929,17 @@
       <c r="AI4" s="18"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="6"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="6"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1931,8 +1998,17 @@
       <c r="AI5" s="18"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="6"/>
-    </row>
-    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="6"/>
+    </row>
+    <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1982,8 +2058,17 @@
       <c r="AI6" s="19"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="9"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="6"/>
+    </row>
+    <row r="7" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2024,8 +2109,17 @@
       <c r="W7" s="18"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="6"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM7" s="7">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="9"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2067,7 +2161,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2109,7 +2203,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2151,7 +2245,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2184,7 +2278,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2207,7 +2301,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2230,7 +2324,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2253,7 +2347,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H15" s="5">
         <v>14</v>
       </c>
@@ -2264,7 +2358,7 @@
       <c r="K15" s="53"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="7">
         <v>15</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F49195D-4598-4E77-BBAC-D941C60ECF2A}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4C55AC-61F4-4C0E-8A1E-A55C76FE65CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
   <si>
     <t>Control_sys</t>
   </si>
@@ -422,6 +422,39 @@
   </si>
   <si>
     <t>Bicycle_unicycle</t>
+  </si>
+  <si>
+    <t>Signal Generator</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>Parabolic</t>
+  </si>
+  <si>
+    <t>Exponential increase_bounded</t>
+  </si>
+  <si>
+    <t>Exponential increase_unbounded</t>
+  </si>
+  <si>
+    <t>Pulse square</t>
+  </si>
+  <si>
+    <t>Pulse sine</t>
+  </si>
+  <si>
+    <t>Doublet</t>
+  </si>
+  <si>
+    <t>Chirp</t>
+  </si>
+  <si>
+    <t>Inpulse</t>
   </si>
 </sst>
 </file>
@@ -1072,6 +1105,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1104,9 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1406,10 +1439,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1418,16 +1451,16 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1436,19 +1469,19 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1456,17 +1489,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1474,16 +1507,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1492,19 +1525,19 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="56" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1512,17 +1545,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1530,19 +1563,19 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="56" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1550,17 +1583,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1568,9 +1601,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1597,11 +1630,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AW20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR19" sqref="AR19"/>
+      <selection pane="bottomLeft" activeCell="BC14" sqref="BC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,9 +1647,10 @@
     <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
@@ -1729,8 +1763,23 @@
       <c r="AQ1" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1755,7 +1804,7 @@
       <c r="N2" s="49">
         <v>1</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="63" t="s">
         <v>87</v>
       </c>
       <c r="P2" s="50" t="s">
@@ -1798,10 +1847,19 @@
         <v>125</v>
       </c>
       <c r="AO2" s="17"/>
-      <c r="AP2" s="66"/>
+      <c r="AP2" s="55"/>
       <c r="AQ2" s="12"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="22"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1826,7 +1884,7 @@
       <c r="N3" s="42">
         <v>2</v>
       </c>
-      <c r="O3" s="63"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="44" t="s">
         <v>81</v>
       </c>
@@ -1869,8 +1927,17 @@
       <c r="AO3" s="18"/>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="6"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="6"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1895,7 +1962,7 @@
       <c r="N4" s="42">
         <v>3</v>
       </c>
-      <c r="O4" s="63"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="44" t="s">
         <v>82</v>
       </c>
@@ -1938,8 +2005,17 @@
       <c r="AO4" s="18"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="6"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="6"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1964,7 +2040,7 @@
       <c r="N5" s="42">
         <v>4</v>
       </c>
-      <c r="O5" s="63"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="44" t="s">
         <v>83</v>
       </c>
@@ -2007,8 +2083,17 @@
       <c r="AO5" s="18"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="6"/>
-    </row>
-    <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="6"/>
+    </row>
+    <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2033,7 +2118,7 @@
       <c r="N6" s="42">
         <v>5</v>
       </c>
-      <c r="O6" s="63"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="44" t="s">
         <v>84</v>
       </c>
@@ -2067,8 +2152,17 @@
       <c r="AO6" s="18"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="6"/>
-    </row>
-    <row r="7" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="6"/>
+    </row>
+    <row r="7" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2093,7 +2187,7 @@
       <c r="N7" s="42">
         <v>6</v>
       </c>
-      <c r="O7" s="63"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="44" t="s">
         <v>85</v>
       </c>
@@ -2118,8 +2212,17 @@
       <c r="AO7" s="19"/>
       <c r="AP7" s="8"/>
       <c r="AQ7" s="9"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS7" s="5">
+        <v>6</v>
+      </c>
+      <c r="AT7" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="6"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2144,7 +2247,7 @@
       <c r="N8" s="42">
         <v>7</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="44" t="s">
         <v>103</v>
       </c>
@@ -2160,8 +2263,17 @@
       <c r="W8" s="18"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS8" s="5">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="6"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2202,8 +2314,17 @@
       <c r="W9" s="18"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="6"/>
-    </row>
-    <row r="10" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AT9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="6"/>
+    </row>
+    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2244,8 +2365,17 @@
       <c r="W10" s="19"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS10" s="5">
+        <v>9</v>
+      </c>
+      <c r="AT10" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="6"/>
+    </row>
+    <row r="11" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2277,8 +2407,17 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS11" s="7">
+        <v>10</v>
+      </c>
+      <c r="AT11" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="9"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2301,7 +2440,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2324,7 +2463,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2347,7 +2486,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="H15" s="5">
         <v>14</v>
       </c>
@@ -2358,7 +2497,7 @@
       <c r="K15" s="53"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="7">
         <v>15</v>
       </c>
@@ -2371,24 +2510,24 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="24"/>
     </row>
   </sheetData>
@@ -2432,7 +2571,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2441,7 +2580,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2469,113 +2608,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="65"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2589,7 +2728,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="65" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2600,7 +2739,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="632" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4C55AC-61F4-4C0E-8A1E-A55C76FE65CB}"/>
+  <xr:revisionPtr revIDLastSave="633" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D0C2DE-BE49-47A5-B2F5-FBD2D2A4D1B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,9 +1632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
   <dimension ref="A1:AW20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC14" sqref="BC14"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,7 +2182,7 @@
         <v>69</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="6"/>
       <c r="N7" s="42">
         <v>6</v>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D0C2DE-BE49-47A5-B2F5-FBD2D2A4D1B5}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0060B599-215E-4535-B7B3-EE40ECD3B93B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2113,7 @@
         <v>70</v>
       </c>
       <c r="J6" s="18"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="6"/>
       <c r="N6" s="42">
         <v>5</v>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0060B599-215E-4535-B7B3-EE40ECD3B93B}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7195BABC-7C05-4E93-9FCC-54256FEA283C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2242,7 @@
         <v>77</v>
       </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="6"/>
       <c r="N8" s="42">
         <v>7</v>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7195BABC-7C05-4E93-9FCC-54256FEA283C}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E1F23E-8B16-404B-B7E4-0847F105A486}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Control" sheetId="1" r:id="rId1"/>
-    <sheet name="Control system" sheetId="5" r:id="rId2"/>
-    <sheet name="Filter" sheetId="3" r:id="rId3"/>
-    <sheet name="Math" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Control system" sheetId="5" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="10" r:id="rId2"/>
+    <sheet name="System identification" sheetId="9" r:id="rId3"/>
+    <sheet name="Signal Generator" sheetId="8" r:id="rId4"/>
+    <sheet name="Estimation" sheetId="7" r:id="rId5"/>
+    <sheet name="Mobile robot" sheetId="6" r:id="rId6"/>
+    <sheet name="Constants" sheetId="4" r:id="rId7"/>
+    <sheet name="Filter" sheetId="3" r:id="rId8"/>
+    <sheet name="Math" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
-  <si>
-    <t>Control_sys</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
   <si>
     <t>I</t>
   </si>
@@ -40,9 +41,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>D_LPF_1</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
@@ -52,67 +50,7 @@
     <t>PID</t>
   </si>
   <si>
-    <t>PD_LPF_1</t>
-  </si>
-  <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>P.h</t>
-  </si>
-  <si>
-    <t>I.h</t>
-  </si>
-  <si>
-    <t>D.h</t>
-  </si>
-  <si>
-    <t>D_LPF_1.h</t>
-  </si>
-  <si>
-    <t>PI.h</t>
-  </si>
-  <si>
-    <t>PD.h</t>
-  </si>
-  <si>
-    <t>PD_LPF_1.h</t>
-  </si>
-  <si>
-    <t>P.cpp</t>
-  </si>
-  <si>
-    <t>I.cpp</t>
-  </si>
-  <si>
-    <t>D.cpp</t>
-  </si>
-  <si>
-    <t>D_LPF_1.cpp</t>
-  </si>
-  <si>
-    <t>PID.h</t>
-  </si>
-  <si>
-    <t>PID.cpp</t>
-  </si>
-  <si>
-    <t>PI.cpp</t>
-  </si>
-  <si>
-    <t>PD.cpp</t>
-  </si>
-  <si>
-    <t>PD_LPF_1.cpp</t>
-  </si>
-  <si>
-    <t>PID_LPF_1</t>
-  </si>
-  <si>
-    <t>PID_LPF_1.h</t>
-  </si>
-  <si>
-    <t>PID_LPF_1.cpp</t>
   </si>
   <si>
     <t>Complex number</t>
@@ -953,7 +891,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1107,9 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1423,1145 +1358,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:A18"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C7:C8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF893F8-BCFD-488B-AF9B-0D36D68641BC}">
-  <dimension ref="A1:AW20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1"/>
-      <c r="U1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT1" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="30"/>
       <c r="F2" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="29">
-        <v>1</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="22"/>
-      <c r="N2" s="49">
-        <v>1</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="12"/>
-      <c r="U2" s="29">
-        <v>1</v>
-      </c>
-      <c r="V2" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="22"/>
-      <c r="AA2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="12"/>
-      <c r="AG2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="12"/>
-      <c r="AM2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="12"/>
-      <c r="AS2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="22"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="4"/>
       <c r="F3" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="6"/>
-      <c r="N3" s="42">
-        <v>2</v>
-      </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="6"/>
-      <c r="U3" s="5">
-        <v>2</v>
-      </c>
-      <c r="V3" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="6"/>
-      <c r="AA3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="6"/>
-      <c r="AG3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="6"/>
-      <c r="AM3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="6"/>
-      <c r="AS3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="6"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="4"/>
       <c r="F4" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="6"/>
-      <c r="N4" s="42">
-        <v>3</v>
-      </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="6"/>
-      <c r="U4" s="5">
-        <v>3</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="6"/>
-      <c r="AA4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="6"/>
-      <c r="AG4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="6"/>
-      <c r="AM4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AN4" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="6"/>
-      <c r="AS4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AT4" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="6"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
       <c r="E5" s="4"/>
       <c r="F5" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="6"/>
-      <c r="N5" s="42">
-        <v>4</v>
-      </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="6"/>
-      <c r="U5" s="5">
-        <v>4</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="6"/>
-      <c r="AA5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="6"/>
-      <c r="AG5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="6"/>
-      <c r="AM5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="6"/>
-      <c r="AS5" s="5">
-        <v>4</v>
-      </c>
-      <c r="AT5" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="6"/>
-    </row>
-    <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
       <c r="E6" s="4"/>
       <c r="F6" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="6"/>
-      <c r="N6" s="42">
-        <v>5</v>
-      </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="6"/>
-      <c r="U6" s="5">
-        <v>5</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="6"/>
-      <c r="AG6" s="7">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="9"/>
-      <c r="AM6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="6"/>
-      <c r="AS6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AT6" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="6"/>
-    </row>
-    <row r="7" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
       <c r="E7" s="4"/>
       <c r="F7" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="5">
-        <v>6</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="6"/>
-      <c r="N7" s="42">
-        <v>6</v>
-      </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="6"/>
-      <c r="U7" s="5">
-        <v>6</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7" s="18"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="6"/>
-      <c r="AM7" s="7">
-        <v>6</v>
-      </c>
-      <c r="AN7" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="9"/>
-      <c r="AS7" s="5">
-        <v>6</v>
-      </c>
-      <c r="AT7" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="6"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="25"/>
       <c r="E8" s="4"/>
       <c r="F8" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7</v>
-      </c>
-      <c r="I8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="6"/>
-      <c r="N8" s="42">
-        <v>7</v>
-      </c>
-      <c r="O8" s="64"/>
-      <c r="P8" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="6"/>
-      <c r="U8" s="5">
-        <v>7</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W8" s="18"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="6"/>
-      <c r="AS8" s="5">
-        <v>7</v>
-      </c>
-      <c r="AT8" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="6"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="25"/>
       <c r="E9" s="4"/>
       <c r="F9" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="5">
-        <v>8</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="42">
-        <v>8</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="6"/>
-      <c r="U9" s="5">
-        <v>8</v>
-      </c>
-      <c r="V9" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="6"/>
-      <c r="AS9" s="5">
-        <v>8</v>
-      </c>
-      <c r="AT9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="6"/>
-    </row>
-    <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="25"/>
       <c r="E10" s="4"/>
       <c r="F10" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="5">
-        <v>9</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="6"/>
-      <c r="N10" s="42">
-        <v>9</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="6"/>
-      <c r="U10" s="7">
-        <v>9</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="19"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="9"/>
-      <c r="AS10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AT10" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="6"/>
-    </row>
-    <row r="11" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="25"/>
       <c r="E11" s="4"/>
       <c r="F11" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="46">
-        <v>10</v>
-      </c>
-      <c r="O11" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-      <c r="AS11" s="7">
-        <v>10</v>
-      </c>
-      <c r="AT11" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="9"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="25"/>
       <c r="E12" s="4"/>
       <c r="F12" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="5">
-        <v>11</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="25"/>
       <c r="E13" s="4"/>
       <c r="F13" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="5">
-        <v>12</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="41"/>
       <c r="E14" s="8"/>
       <c r="F14" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="5">
-        <v>13</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="H15" s="5">
-        <v>14</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="24"/>
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="O2:O8"/>
+  <mergeCells count="3">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD97391-339B-4313-8D6D-883D8A38F360}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0761546C-2124-4D87-9532-0ECA1AEF2C0F}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D049C773-2D95-45A8-A9FA-3F365D74E40B}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5846F4-5620-4E75-AD36-23EC709DF9B6}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BC8A56-D40A-4F65-87E5-EA0E881CA0D3}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A2992A-FC23-4018-88DA-5C212CD73515}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1683BD35-68D1-40C8-810D-7B22B62F74CE}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD97391-339B-4313-8D6D-883D8A38F360}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB061AE-55A5-4E7E-B1FB-948ACE22BB91}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,178 +2669,193 @@
     <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>55</v>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
+      <c r="D2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
+      <c r="D4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="K6" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="K6" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>31</v>
+      <c r="A22" s="64" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -2761,25 +2875,16 @@
       <c r="C26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="K6:L7"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1683BD35-68D1-40C8-810D-7B22B62F74CE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E1F23E-8B16-404B-B7E4-0847F105A486}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC136B26-C786-4EFA-BA53-316FA637DB7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control system" sheetId="5" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="10" r:id="rId2"/>
-    <sheet name="System identification" sheetId="9" r:id="rId3"/>
+    <sheet name="Filter" sheetId="3" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="10" r:id="rId3"/>
     <sheet name="Signal Generator" sheetId="8" r:id="rId4"/>
     <sheet name="Estimation" sheetId="7" r:id="rId5"/>
-    <sheet name="Mobile robot" sheetId="6" r:id="rId6"/>
-    <sheet name="Constants" sheetId="4" r:id="rId7"/>
-    <sheet name="Filter" sheetId="3" r:id="rId8"/>
+    <sheet name="System identification" sheetId="9" r:id="rId6"/>
+    <sheet name="Mobile robot" sheetId="6" r:id="rId7"/>
+    <sheet name="Constants" sheetId="4" r:id="rId8"/>
     <sheet name="Math" sheetId="2" r:id="rId9"/>
+    <sheet name="Aerial vehicle" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
   <si>
     <t>I</t>
   </si>
@@ -392,7 +393,70 @@
     <t>Chirp</t>
   </si>
   <si>
-    <t>Inpulse</t>
+    <t>Input Combination</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>wz</t>
+  </si>
+  <si>
+    <t>vz</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>vx</t>
+  </si>
+  <si>
+    <t>vy</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>wx</t>
+  </si>
+  <si>
+    <t>wy</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Mz</t>
+  </si>
+  <si>
+    <t>Fx</t>
+  </si>
+  <si>
+    <t>Fy</t>
+  </si>
+  <si>
+    <t>Fz</t>
   </si>
 </sst>
 </file>
@@ -451,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,8 +555,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -884,6 +954,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -891,7 +1194,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1046,6 +1349,117 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1085,6 +1499,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1363,7 +1783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,10 +1825,10 @@
       <c r="F2" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="57"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1424,10 +1844,10 @@
       <c r="F3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="150"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1443,10 +1863,10 @@
       <c r="F4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,26 +2020,1436 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0761546C-2124-4D87-9532-0ECA1AEF2C0F}">
-  <dimension ref="A1:I5"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B9CAB-2F1B-47BE-BDE0-1AC6DEAAB058}">
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="129"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="102"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
+        <v>2</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="70"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="63">
+        <v>3</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="70"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
+        <v>4</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="70"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="63">
+        <v>5</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="70"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63">
+        <v>6</v>
+      </c>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="73"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
+        <v>7</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="132"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="70"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="70"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="63">
+        <v>10</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="70"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="63">
+        <v>11</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="70"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63">
+        <v>12</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="73"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
+        <v>13</v>
+      </c>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="123"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
+        <v>14</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="70"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
+        <v>15</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="70"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
+        <v>16</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="70"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
+        <v>17</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="70"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56">
+        <v>18</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="127"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="63">
+        <v>19</v>
+      </c>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="132"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="63">
+        <v>20</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="70"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
+        <v>21</v>
+      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="70"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
+        <v>22</v>
+      </c>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="70"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="63">
+        <v>23</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="70"/>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63">
+        <v>24</v>
+      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="73"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="63">
+        <v>25</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="123"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="63">
+        <v>26</v>
+      </c>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="70"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="63">
+        <v>27</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="70"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="63">
+        <v>28</v>
+      </c>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="70"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="63">
+        <v>29</v>
+      </c>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="70"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="63">
+        <v>30</v>
+      </c>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="127"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
+        <v>31</v>
+      </c>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="134"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="56">
+        <v>32</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="87"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
+        <v>33</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="87"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56">
+        <v>34</v>
+      </c>
+      <c r="B36" s="80"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="107"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="63">
+        <v>35</v>
+      </c>
+      <c r="B37" s="121"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="123"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="63">
+        <v>36</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="70"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="63">
+        <v>37</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="70"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="63">
+        <v>38</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="70"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="63">
+        <v>39</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="70"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="63">
+        <v>40</v>
+      </c>
+      <c r="B42" s="79"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="70"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="63">
+        <v>41</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="70"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="63">
+        <v>42</v>
+      </c>
+      <c r="B44" s="79"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="70"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="63">
+        <v>43</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="70"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="63">
+        <v>44</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="70"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="63">
+        <v>45</v>
+      </c>
+      <c r="B47" s="79"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="70"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="63">
+        <v>46</v>
+      </c>
+      <c r="B48" s="79"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="70"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="63">
+        <v>47</v>
+      </c>
+      <c r="B49" s="79"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="70"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="63">
+        <v>48</v>
+      </c>
+      <c r="B50" s="79"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="70"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="63">
+        <v>49</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="70"/>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="64">
+        <v>50</v>
+      </c>
+      <c r="B52" s="80"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD97391-339B-4313-8D6D-883D8A38F360}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>39</v>
@@ -1632,19 +3462,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="G2" s="56" t="s">
+      <c r="B2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1652,15 +3482,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1668,15 +3498,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1684,11 +3514,132 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1701,6 +3652,372 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0761546C-2124-4D87-9532-0ECA1AEF2C0F}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="148"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="149" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="150"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="152"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5846F4-5620-4E75-AD36-23EC709DF9B6}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="148"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="149" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="150"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="152"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BC8A56-D40A-4F65-87E5-EA0E881CA0D3}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="G2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="148"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="149" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="150"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="152"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D049C773-2D95-45A8-A9FA-3F365D74E40B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1739,7 +4056,7 @@
       <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="153" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -1748,51 +4065,51 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="57"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="44" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="150"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="44" t="s">
         <v>61</v>
       </c>
@@ -1804,7 +4121,7 @@
       <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="44" t="s">
         <v>62</v>
       </c>
@@ -1816,7 +4133,7 @@
       <c r="A7" s="42">
         <v>6</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="44" t="s">
         <v>63</v>
       </c>
@@ -1828,7 +4145,7 @@
       <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="44" t="s">
         <v>81</v>
       </c>
@@ -1883,290 +4200,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5846F4-5620-4E75-AD36-23EC709DF9B6}">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BC8A56-D40A-4F65-87E5-EA0E881CA0D3}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="G2" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A2992A-FC23-4018-88DA-5C212CD73515}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,10 +4241,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="55"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2217,10 +4257,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2233,10 +4273,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2271,161 +4311,6 @@
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1683BD35-68D1-40C8-810D-7B22B62F74CE}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2438,22 +4323,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD97391-339B-4313-8D6D-883D8A38F360}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1683BD35-68D1-40C8-810D-7B22B62F74CE}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>39</v>
@@ -2470,15 +4358,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2486,15 +4374,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2502,15 +4390,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2518,10 +4406,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="25"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,10 +4417,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,10 +4428,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2551,10 +4439,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,88 +4450,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="9"/>
+      <c r="B10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2660,7 +4482,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,7 +4492,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="155" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2679,15 +4501,15 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
+      <c r="A2" s="155"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,10 +4518,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="150"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2708,10 +4530,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,113 +4544,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="155" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="65"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
@@ -2842,7 +4664,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="155" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2853,7 +4675,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC136B26-C786-4EFA-BA53-316FA637DB7B}"/>
+  <xr:revisionPtr revIDLastSave="1524" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52DABDD0-7D52-4D52-9FCA-3AD16E219FE4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control system" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,14 @@
     <sheet name="Constants" sheetId="4" r:id="rId8"/>
     <sheet name="Math" sheetId="2" r:id="rId9"/>
     <sheet name="Aerial vehicle" sheetId="11" r:id="rId10"/>
+    <sheet name="Aerial vehicle-2" sheetId="12" r:id="rId11"/>
+    <sheet name="System architecture" sheetId="13" r:id="rId12"/>
+    <sheet name="Flight stack" sheetId="14" r:id="rId13"/>
+    <sheet name="Estimation layer" sheetId="15" r:id="rId14"/>
+    <sheet name="Control layer" sheetId="16" r:id="rId15"/>
+    <sheet name="Vehicle FCS" sheetId="17" r:id="rId16"/>
+    <sheet name="Vehicle FMS" sheetId="18" r:id="rId17"/>
+    <sheet name="Health monitoring and safety" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="253">
   <si>
     <t>I</t>
   </si>
@@ -399,12 +407,6 @@
     <t>psi</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -414,33 +416,9 @@
     <t>vz</t>
   </si>
   <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>vx</t>
-  </si>
-  <si>
-    <t>vy</t>
-  </si>
-  <si>
-    <t>ax</t>
-  </si>
-  <si>
-    <t>ay</t>
-  </si>
-  <si>
     <t>az</t>
   </si>
   <si>
-    <t>wx</t>
-  </si>
-  <si>
-    <t>wy</t>
-  </si>
-  <si>
     <t>Mx</t>
   </si>
   <si>
@@ -457,13 +435,379 @@
   </si>
   <si>
     <t>Fz</t>
+  </si>
+  <si>
+    <t>Control sequence</t>
+  </si>
+  <si>
+    <t>Flight mode</t>
+  </si>
+  <si>
+    <t>control_seq_0</t>
+  </si>
+  <si>
+    <t>control_seq_1</t>
+  </si>
+  <si>
+    <t>control_seq_2</t>
+  </si>
+  <si>
+    <t>control_seq_4</t>
+  </si>
+  <si>
+    <t>control_seq_5</t>
+  </si>
+  <si>
+    <t>control_seq_19</t>
+  </si>
+  <si>
+    <t>control_seq_20</t>
+  </si>
+  <si>
+    <t>control_seq_22</t>
+  </si>
+  <si>
+    <t>control_seq_23</t>
+  </si>
+  <si>
+    <t>control_seq_25</t>
+  </si>
+  <si>
+    <t>control_seq_26</t>
+  </si>
+  <si>
+    <t>control_seq_27</t>
+  </si>
+  <si>
+    <t>control_seq_28</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>position_hold</t>
+  </si>
+  <si>
+    <t>stabilized</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>x, y</t>
+  </si>
+  <si>
+    <t>vx, vy</t>
+  </si>
+  <si>
+    <t>ax, ay</t>
+  </si>
+  <si>
+    <t>phi, th</t>
+  </si>
+  <si>
+    <t>Horizontal motion</t>
+  </si>
+  <si>
+    <t>Vertical motion</t>
+  </si>
+  <si>
+    <t>Tilt</t>
+  </si>
+  <si>
+    <t>Tilt rate</t>
+  </si>
+  <si>
+    <t>Yaw rate</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>wx, wy</t>
+  </si>
+  <si>
+    <t>Feedback requirement</t>
+  </si>
+  <si>
+    <t>Wrench (body frame)</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>altitude_hold</t>
+  </si>
+  <si>
+    <t>System architecture</t>
+  </si>
+  <si>
+    <t>Flight stack</t>
+  </si>
+  <si>
+    <t>State estimator</t>
+  </si>
+  <si>
+    <t>Control system</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Vehicle specific code</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Actuators</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Gyroscope</t>
+  </si>
+  <si>
+    <t>Magnetometer</t>
+  </si>
+  <si>
+    <t>Barometer</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>LIDAR</t>
+  </si>
+  <si>
+    <t>IR proximity</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Tachometer</t>
+  </si>
+  <si>
+    <t>Audio visual feedback</t>
+  </si>
+  <si>
+    <t>Data logger</t>
+  </si>
+  <si>
+    <t>Brushed</t>
+  </si>
+  <si>
+    <t>Brushless</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Transmitter</t>
+  </si>
+  <si>
+    <t>Transceiver</t>
+  </si>
+  <si>
+    <t>Motor driver</t>
+  </si>
+  <si>
+    <t>Buck converter</t>
+  </si>
+  <si>
+    <t>Boost converter</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>H bridge</t>
+  </si>
+  <si>
+    <t>Propulsion control allocator</t>
+  </si>
+  <si>
+    <t>Propulsion control</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>Temperature sensor</t>
+  </si>
+  <si>
+    <t>Air speed sensor</t>
+  </si>
+  <si>
+    <t>Angle of attack sensor</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>MatrixMN</t>
+  </si>
+  <si>
+    <t>VectorN</t>
+  </si>
+  <si>
+    <t>Complex umber</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Differentiation</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Planar</t>
+  </si>
+  <si>
+    <t>Spatial</t>
+  </si>
+  <si>
+    <t>Tetrahedral</t>
+  </si>
+  <si>
+    <t>Line segment</t>
+  </si>
+  <si>
+    <t>Prism</t>
+  </si>
+  <si>
+    <t>Conics</t>
+  </si>
+  <si>
+    <t>General math</t>
+  </si>
+  <si>
+    <t>Low pass first order</t>
+  </si>
+  <si>
+    <t>High pass first order</t>
+  </si>
+  <si>
+    <t>Low pass second order</t>
+  </si>
+  <si>
+    <t>High pass second order</t>
+  </si>
+  <si>
+    <t>Band pass</t>
+  </si>
+  <si>
+    <t>Band stop</t>
+  </si>
+  <si>
+    <t>Moving average</t>
+  </si>
+  <si>
+    <t>Harmonic notch filter</t>
+  </si>
+  <si>
+    <t>Quaternion filter first order</t>
+  </si>
+  <si>
+    <t>Quaternion filter second order</t>
+  </si>
+  <si>
+    <t>Median filter</t>
+  </si>
+  <si>
+    <t>max, min, signum, mod, wrap etc</t>
+  </si>
+  <si>
+    <t>Complimentary filter</t>
+  </si>
+  <si>
+    <t>Kalman filter</t>
+  </si>
+  <si>
+    <t>Bayesian estimator</t>
+  </si>
+  <si>
+    <t>Power distribution system</t>
+  </si>
+  <si>
+    <t>Go to goal</t>
+  </si>
+  <si>
+    <t>Way point navigation</t>
+  </si>
+  <si>
+    <t>Trajectory generation</t>
+  </si>
+  <si>
+    <t>Trajectory tracking</t>
+  </si>
+  <si>
+    <t>Path generation</t>
+  </si>
+  <si>
+    <t>Obstacle avoidance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +858,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +912,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -958,7 +1321,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -968,7 +1346,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -984,7 +1405,138 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -998,110 +1550,24 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1114,76 +1580,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1194,7 +1590,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1349,117 +1745,150 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1489,6 +1918,76 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1783,13 +2282,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1825,10 +2325,10 @@
       <c r="F2" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="148"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1844,10 +2344,10 @@
       <c r="F3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="150"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1863,10 +2363,10 @@
       <c r="F4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="152"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2022,1413 +2522,2084 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19B9CAB-2F1B-47BE-BDE0-1AC6DEAAB058}">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="165" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="165" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="S1" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="158" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="159"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="163"/>
+      <c r="B2" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="F2" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="L2" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="161"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84">
+        <v>0</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" s="106"/>
+      <c r="U3" s="107"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="85">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="101"/>
+      <c r="U4" s="96"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>2</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="91"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="97"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>3</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="S6" s="91"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="97"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
+        <v>4</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="114"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="98"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="85">
+        <v>5</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="T8" s="101"/>
+      <c r="U8" s="96"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>6</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" s="91"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="97"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>7</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="91"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="97"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
+        <v>8</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="114"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="98"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>9</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" s="111"/>
+      <c r="U12" s="112"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>10</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="T13" s="95"/>
+      <c r="U13" s="97"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>11</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="S14" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="T14" s="95"/>
+      <c r="U14" s="97"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87">
+        <v>12</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="T15" s="104"/>
+      <c r="U15" s="99"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="85">
+        <v>13</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="S16" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16" s="101"/>
+      <c r="U16" s="96"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59">
+        <v>14</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="S17" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="T17" s="102"/>
+      <c r="U17" s="98"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84">
+        <v>15</v>
+      </c>
+      <c r="B18" s="122"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="S18" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="T18" s="106"/>
+      <c r="U18" s="107"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84">
+        <v>16</v>
+      </c>
+      <c r="B19" s="122"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" s="106"/>
+      <c r="U19" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86F05D0-180B-43C4-AE12-37977CC3422F}">
+  <dimension ref="A1:AC19"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.5703125" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="162" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="165"/>
+      <c r="E1" s="166"/>
+      <c r="G1" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
+      <c r="K1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="166"/>
+      <c r="Z1" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" s="158" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" s="159"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="163"/>
+      <c r="C2" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="I2" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="V2" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="W2" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="58" t="s">
+      <c r="X2" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="58" t="s">
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="161"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84">
+        <v>0</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="86"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="126"/>
+      <c r="K3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="86"/>
+      <c r="Z3" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="AA3" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="107"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="85">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="81"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="81"/>
+      <c r="K4" s="137"/>
+      <c r="M4" s="140"/>
+      <c r="O4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="81"/>
+      <c r="Z4" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="60" t="s">
+      <c r="AA4" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="96"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>2</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="82"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="82"/>
+      <c r="K5" s="138"/>
+      <c r="M5" s="141"/>
+      <c r="O5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="82"/>
+      <c r="Z5" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="97"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>3</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="82"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="82"/>
+      <c r="K6" s="138"/>
+      <c r="M6" s="141"/>
+      <c r="O6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="82"/>
+      <c r="Z6" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="97"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
+        <v>4</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="83"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="83"/>
+      <c r="K7" s="139"/>
+      <c r="M7" s="142"/>
+      <c r="O7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="83"/>
+      <c r="Z7" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="98"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="85">
+        <v>5</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="81"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="81"/>
+      <c r="K8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="Q8" s="140"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="81"/>
+      <c r="Z8" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="96"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="58">
+        <v>6</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="82"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="82"/>
+      <c r="K9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="Q9" s="141"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="82"/>
+      <c r="Z9" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="97"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <v>7</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="82"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="82"/>
+      <c r="K10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="Q10" s="141"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="82"/>
+      <c r="Z10" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="97"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
+        <v>8</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="83"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="83"/>
+      <c r="K11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="Q11" s="142"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="83"/>
+      <c r="Z11" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="98"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>9</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="89"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="89"/>
+      <c r="K12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="O12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="89"/>
+      <c r="Z12" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="AA12" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="112"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>10</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="82"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="82"/>
+      <c r="K13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="O13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="82"/>
+      <c r="Z13" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="AA13" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="97"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>11</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="82"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="82"/>
+      <c r="K14" s="141"/>
+      <c r="M14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="Q14" s="141"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="82"/>
+      <c r="Z14" s="130" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62">
+      <c r="AA14" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="97"/>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87">
+        <v>12</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="123"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="123"/>
+      <c r="K15" s="144"/>
+      <c r="M15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="Q15" s="144"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="123"/>
+      <c r="Z15" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA15" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="99"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="85">
+        <v>13</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="81"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="81"/>
+      <c r="K16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="O16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="124"/>
+      <c r="Z16" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA16" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="96"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59">
+        <v>14</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="83"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="83"/>
+      <c r="K17" s="142"/>
+      <c r="M17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="Q17" s="142"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="125"/>
+      <c r="Z17" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA17" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="98"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84">
+        <v>15</v>
+      </c>
+      <c r="C18" s="122"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="86"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="86"/>
+      <c r="K18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="O18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="80"/>
+      <c r="Z18" s="134" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA18" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="107"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84">
+        <v>16</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="86"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="126"/>
+      <c r="K19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="80"/>
+      <c r="Z19" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA19" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AB1:AC2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF7264C-E7A0-49C5-B2A0-72B8B547DC0E}">
+  <dimension ref="A2:O62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="169" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="174" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="168" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="129"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="63">
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="102"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="63">
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="70"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="70"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
-        <v>5</v>
-      </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="70"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63">
-        <v>6</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="73"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="63">
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="174" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="174" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="156"/>
+      <c r="H21" s="170" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="156"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="156"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="156"/>
+      <c r="H24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="167"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="156"/>
+      <c r="H25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I25" s="167"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="156"/>
+      <c r="H26" s="173" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="180" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="156"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="156" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="156"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="180" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="156"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="156" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" s="180" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="156"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="180" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="169"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="179" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="156"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="156"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="156" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="180" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="156"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="180" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="156"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="156"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="132"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="63">
-        <v>8</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="70"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
-        <v>9</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="70"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="63">
-        <v>10</v>
-      </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="70"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="63">
-        <v>11</v>
-      </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="70"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63">
-        <v>12</v>
-      </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
-        <v>13</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="123"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
-        <v>14</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="70"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
-        <v>15</v>
-      </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="70"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="J35" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="70"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="K35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="156"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="70"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56">
-        <v>18</v>
-      </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="127"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="63">
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="156"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="156"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="132"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="63">
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="156"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="70"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="63">
-        <v>21</v>
-      </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="70"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40" s="156"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="180" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="156"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G42" s="156"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="181" t="s">
+        <v>229</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="70"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="63">
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G43" s="156"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="70"/>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63">
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="156"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="181"/>
+      <c r="K44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="73"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="63">
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="156"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="123"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
-        <v>26</v>
-      </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="70"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="63">
-        <v>27</v>
-      </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="70"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="63">
-        <v>28</v>
-      </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="70"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
-        <v>29</v>
-      </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="70"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63">
-        <v>30</v>
-      </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="127"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
-        <v>31</v>
-      </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="134"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="56">
-        <v>32</v>
-      </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="87"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
-        <v>33</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="87"/>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="56">
-        <v>34</v>
-      </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="107"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
-        <v>35</v>
-      </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="122"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="123"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="63">
-        <v>36</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="70"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="63">
-        <v>37</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="70"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="63">
-        <v>38</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="70"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="63">
-        <v>39</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="70"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="63">
-        <v>40</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="70"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="63">
-        <v>41</v>
-      </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="70"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="63">
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="156"/>
+      <c r="H46" s="173"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="156"/>
+      <c r="H47" s="173"/>
+      <c r="I47" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="156"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="156"/>
+      <c r="H49" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="70"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="63">
-        <v>43</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="69"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="70"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="63">
-        <v>44</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="70"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="63">
-        <v>45</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="70"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="63">
-        <v>46</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="69"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="69"/>
-      <c r="U48" s="69"/>
-      <c r="V48" s="70"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="63">
-        <v>47</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="69"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="70"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="63">
-        <v>48</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="69"/>
-      <c r="V50" s="70"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="63">
-        <v>49</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="70"/>
-    </row>
-    <row r="52" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64">
-        <v>50</v>
-      </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="73"/>
+      <c r="I49" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="167"/>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="167"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G2:G59"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="H26:H48"/>
+    <mergeCell ref="H49:H59"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C2:C31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7747E6-62D3-4152-BD4D-7F49D1734AF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D00BE0B-CDDF-425B-AD29-406227FC3C1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9774AD9-F210-408D-8DE0-DC5FA13F3AA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A497FCDD-7AFC-448F-BBBB-19B8588E5BE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ABF146-28AE-46B6-9D9F-239E5A87C7F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4946E28-29BC-43B7-9786-7F012DB60FDA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3471,10 +4642,10 @@
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3487,10 +4658,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3503,10 +4674,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3692,10 +4863,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,10 +4879,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3724,10 +4895,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,10 +4963,10 @@
       <c r="C2" s="18"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3808,10 +4979,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3824,10 +4995,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,10 +5118,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,10 +5134,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3979,10 +5150,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4056,7 +5227,7 @@
       <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -4065,51 +5236,51 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="148"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="44" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="150"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="154"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="152"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="154"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="44" t="s">
         <v>61</v>
       </c>
@@ -4121,7 +5292,7 @@
       <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="154"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="44" t="s">
         <v>62</v>
       </c>
@@ -4133,7 +5304,7 @@
       <c r="A7" s="42">
         <v>6</v>
       </c>
-      <c r="B7" s="154"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="44" t="s">
         <v>63</v>
       </c>
@@ -4145,7 +5316,7 @@
       <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="44" t="s">
         <v>81</v>
       </c>
@@ -4241,10 +5412,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="55"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4257,10 +5428,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4273,10 +5444,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4363,10 +5534,10 @@
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4379,10 +5550,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4395,10 +5566,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="152"/>
+      <c r="H4" s="153"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4492,7 +5663,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4501,15 +5672,15 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
+      <c r="A2" s="156"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="148"/>
+      <c r="E2" s="149"/>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4518,10 +5689,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="150"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4530,10 +5701,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="152"/>
+      <c r="E4" s="153"/>
       <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4544,113 +5715,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="156" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="156" t="s">
+      <c r="K6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="156"/>
+      <c r="L6" s="157"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
+      <c r="A12" s="156"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+      <c r="A14" s="156"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
+      <c r="A15" s="156"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
+      <c r="A16" s="156"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
+      <c r="A18" s="156"/>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4664,7 +5835,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="156" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4675,7 +5846,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1524" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52DABDD0-7D52-4D52-9FCA-3AD16E219FE4}"/>
+  <xr:revisionPtr revIDLastSave="1596" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{000EC04E-880C-40F9-8A8D-0211F1E3B859}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control system" sheetId="5" r:id="rId1"/>
@@ -32,393 +32,449 @@
     <sheet name="Vehicle FMS" sheetId="18" r:id="rId17"/>
     <sheet name="Health monitoring and safety" sheetId="19" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="287">
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Equation Type</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
   <si>
     <t>I</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>D + LPF_1</t>
+  </si>
+  <si>
     <t>PI</t>
   </si>
   <si>
     <t>PD</t>
   </si>
   <si>
+    <t>PD + LPF_1</t>
+  </si>
+  <si>
     <t>PID</t>
   </si>
   <si>
-    <t>P</t>
+    <t>PID + LPF_1</t>
+  </si>
+  <si>
+    <t>PID + LPF_1 + FF</t>
+  </si>
+  <si>
+    <t>PID_S</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>PID_P</t>
+  </si>
+  <si>
+    <t>PID_GS</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>LPF_1</t>
+  </si>
+  <si>
+    <t>LPF_2</t>
+  </si>
+  <si>
+    <t>HPF_1</t>
+  </si>
+  <si>
+    <t>HPF_2</t>
+  </si>
+  <si>
+    <t>BPF</t>
+  </si>
+  <si>
+    <t>BSF</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>QF_1</t>
+  </si>
+  <si>
+    <t>QF_2</t>
+  </si>
+  <si>
+    <t>HNF</t>
+  </si>
+  <si>
+    <t>FLC</t>
+  </si>
+  <si>
+    <t>WFLC</t>
+  </si>
+  <si>
+    <t>BMFLC</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Statistical parameters</t>
+  </si>
+  <si>
+    <t>Frequency domain</t>
+  </si>
+  <si>
+    <t>Time domain</t>
+  </si>
+  <si>
+    <t>Lag (cross correlation)</t>
+  </si>
+  <si>
+    <t>Signal Generator</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>Parabolic</t>
+  </si>
+  <si>
+    <t>Exponential increase_unbounded</t>
+  </si>
+  <si>
+    <t>Exponential increase_bounded</t>
+  </si>
+  <si>
+    <t>Pulse square</t>
+  </si>
+  <si>
+    <t>Pulse sine</t>
+  </si>
+  <si>
+    <t>Doublet</t>
+  </si>
+  <si>
+    <t>Chirp</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>EKF</t>
+  </si>
+  <si>
+    <t>UKF</t>
+  </si>
+  <si>
+    <t>SKF</t>
+  </si>
+  <si>
+    <t>System type</t>
+  </si>
+  <si>
+    <t>System Identification</t>
+  </si>
+  <si>
+    <t>SISO</t>
+  </si>
+  <si>
+    <t>First order</t>
+  </si>
+  <si>
+    <t>First order with dead time</t>
+  </si>
+  <si>
+    <t>Second order</t>
+  </si>
+  <si>
+    <t>Second order with dead time</t>
+  </si>
+  <si>
+    <t>Nth order</t>
+  </si>
+  <si>
+    <t>Nth order with dead time</t>
+  </si>
+  <si>
+    <t>Periodic system</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>SIMO</t>
+  </si>
+  <si>
+    <t>MIMO</t>
+  </si>
+  <si>
+    <t>Mobile Robot</t>
+  </si>
+  <si>
+    <t>D_drive_unicycle</t>
+  </si>
+  <si>
+    <t>Wheel_odom_d_drive</t>
+  </si>
+  <si>
+    <t>Ackarman_unicycle</t>
+  </si>
+  <si>
+    <t>Wheel_odom_ackarman</t>
+  </si>
+  <si>
+    <t>Bicycle_unicycle</t>
+  </si>
+  <si>
+    <t>Wheel_odom_bicycle</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>Const_math</t>
+  </si>
+  <si>
+    <t>Const_unit</t>
+  </si>
+  <si>
+    <t>Const_data_type</t>
+  </si>
+  <si>
+    <t>Const_geo_earth</t>
+  </si>
+  <si>
+    <t>Const_atm_earth</t>
+  </si>
+  <si>
+    <t>Const_geo_moon</t>
+  </si>
+  <si>
+    <t>Const_atm_moon</t>
+  </si>
+  <si>
+    <t>Const_geo_sun</t>
+  </si>
+  <si>
+    <t>Const_atm_sun</t>
+  </si>
+  <si>
+    <t>Linear algebra</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>Matrix</t>
   </si>
   <si>
     <t>Complex number</t>
   </si>
   <si>
+    <t>Quaternion</t>
+  </si>
+  <si>
+    <t>Trigonometry</t>
+  </si>
+  <si>
     <t>Geometry</t>
   </si>
   <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D and 3D </t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Quadrilateral</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Ellipse</t>
+  </si>
+  <si>
+    <t>Parabola</t>
+  </si>
+  <si>
+    <t>Hyperbola</t>
+  </si>
+  <si>
+    <t>Plane</t>
+  </si>
+  <si>
+    <t>Sphere</t>
+  </si>
+  <si>
+    <t>Ellipsoid</t>
+  </si>
+  <si>
+    <t>Cuboid</t>
+  </si>
+  <si>
+    <t>Tetrahedron</t>
+  </si>
+  <si>
     <t>Probability &amp; statistics</t>
   </si>
   <si>
     <t>Calculus</t>
   </si>
   <si>
-    <t>Trigonometry</t>
-  </si>
-  <si>
-    <t>Vector</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
     <t>Differential</t>
   </si>
   <si>
+    <t>Laplace</t>
+  </si>
+  <si>
     <t>Integral</t>
   </si>
   <si>
-    <t>Laplace</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Triangle</t>
-  </si>
-  <si>
-    <t>Quadrilateral</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Ellipse</t>
-  </si>
-  <si>
-    <t>Parabola</t>
-  </si>
-  <si>
-    <t>Hyperbola</t>
-  </si>
-  <si>
-    <t>Plane</t>
-  </si>
-  <si>
-    <t>Sphere</t>
-  </si>
-  <si>
-    <t>Ellipsoid</t>
-  </si>
-  <si>
-    <t>Cuboid</t>
-  </si>
-  <si>
-    <t>Tetrahedron</t>
-  </si>
-  <si>
-    <t>Quaternion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D and 3D </t>
-  </si>
-  <si>
-    <t>Linear algebra</t>
-  </si>
-  <si>
-    <t>D + LPF_1</t>
-  </si>
-  <si>
-    <t>PD + LPF_1</t>
-  </si>
-  <si>
-    <t>PID + LPF_1</t>
-  </si>
-  <si>
-    <t>Sr. No.</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>LPF_1</t>
-  </si>
-  <si>
-    <t>LPF_2</t>
-  </si>
-  <si>
-    <t>HPF_1</t>
-  </si>
-  <si>
-    <t>HPF_2</t>
-  </si>
-  <si>
-    <t>BSF</t>
-  </si>
-  <si>
-    <t>BPF</t>
-  </si>
-  <si>
-    <t>HNF</t>
-  </si>
-  <si>
-    <t>QF_1</t>
-  </si>
-  <si>
-    <t>QF_2</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>System Identification</t>
-  </si>
-  <si>
-    <t>First order</t>
-  </si>
-  <si>
-    <t>First order with dead time</t>
-  </si>
-  <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Second order with dead time</t>
-  </si>
-  <si>
-    <t>Nth order</t>
-  </si>
-  <si>
-    <t>Nth order with dead time</t>
-  </si>
-  <si>
-    <t>System type</t>
-  </si>
-  <si>
-    <t>SISO</t>
-  </si>
-  <si>
-    <t>MISO</t>
-  </si>
-  <si>
-    <t>SIMO</t>
-  </si>
-  <si>
-    <t>MIMO</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Statistical parameters</t>
-  </si>
-  <si>
-    <t>Frequency domain</t>
-  </si>
-  <si>
-    <t>Time domain</t>
-  </si>
-  <si>
-    <t>Lag (cross correlation)</t>
-  </si>
-  <si>
-    <t>PID + LPF_1 + FF</t>
-  </si>
-  <si>
-    <t>PID_S</t>
-  </si>
-  <si>
-    <t>PID_P</t>
-  </si>
-  <si>
-    <t>Parallel</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Equation Type</t>
-  </si>
-  <si>
-    <t>PID_GS</t>
-  </si>
-  <si>
-    <t>Periodic system</t>
-  </si>
-  <si>
-    <t>Estimation</t>
-  </si>
-  <si>
-    <t>KF</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>EKF</t>
-  </si>
-  <si>
-    <t>UKF</t>
-  </si>
-  <si>
-    <t>SKF</t>
-  </si>
-  <si>
-    <t>FLC</t>
-  </si>
-  <si>
-    <t>WFLC</t>
-  </si>
-  <si>
-    <t>BMFLC</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>Const_math</t>
-  </si>
-  <si>
-    <t>Const_unit</t>
-  </si>
-  <si>
-    <t>Const_data_type</t>
-  </si>
-  <si>
-    <t>Const_atm_earth</t>
-  </si>
-  <si>
-    <t>Const_geo_earth</t>
-  </si>
-  <si>
-    <t>Const_geo_moon</t>
-  </si>
-  <si>
-    <t>Const_atm_moon</t>
-  </si>
-  <si>
-    <t>Const_geo_sun</t>
-  </si>
-  <si>
-    <t>Const_atm_sun</t>
-  </si>
-  <si>
-    <t>SRL</t>
-  </si>
-  <si>
-    <t>Mobile Robot</t>
-  </si>
-  <si>
-    <t>D_drive_unicycle</t>
-  </si>
-  <si>
-    <t>Wheel_odom_d_drive</t>
-  </si>
-  <si>
-    <t>Ackarman_unicycle</t>
-  </si>
-  <si>
-    <t>Wheel_odom_ackarman</t>
-  </si>
-  <si>
-    <t>Wheel_odom_bicycle</t>
-  </si>
-  <si>
-    <t>Bicycle_unicycle</t>
-  </si>
-  <si>
-    <t>Signal Generator</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Ramp</t>
-  </si>
-  <si>
-    <t>Parabolic</t>
-  </si>
-  <si>
-    <t>Exponential increase_bounded</t>
-  </si>
-  <si>
-    <t>Exponential increase_unbounded</t>
-  </si>
-  <si>
-    <t>Pulse square</t>
-  </si>
-  <si>
-    <t>Pulse sine</t>
-  </si>
-  <si>
-    <t>Doublet</t>
-  </si>
-  <si>
-    <t>Chirp</t>
-  </si>
-  <si>
     <t>Input Combination</t>
   </si>
   <si>
+    <t>Horizontal motion</t>
+  </si>
+  <si>
+    <t>Vertical motion</t>
+  </si>
+  <si>
+    <t>Tilt</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>Tilt rate</t>
+  </si>
+  <si>
+    <t>Yaw rate</t>
+  </si>
+  <si>
+    <t>Wrench (body frame)</t>
+  </si>
+  <si>
+    <t>Control sequence</t>
+  </si>
+  <si>
+    <t>Flight mode</t>
+  </si>
+  <si>
+    <t>Feedback requirement</t>
+  </si>
+  <si>
+    <t>x, y</t>
+  </si>
+  <si>
+    <t>vx, vy</t>
+  </si>
+  <si>
+    <t>ax, ay</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>vz</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>phi, th</t>
+  </si>
+  <si>
     <t>psi</t>
   </si>
   <si>
-    <t>z</t>
+    <t>wx, wy</t>
   </si>
   <si>
     <t>wz</t>
   </si>
   <si>
-    <t>vz</t>
-  </si>
-  <si>
-    <t>az</t>
-  </si>
-  <si>
     <t>Mx</t>
   </si>
   <si>
@@ -437,18 +493,18 @@
     <t>Fz</t>
   </si>
   <si>
-    <t>Control sequence</t>
-  </si>
-  <si>
-    <t>Flight mode</t>
-  </si>
-  <si>
     <t>control_seq_0</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>control_seq_1</t>
   </si>
   <si>
+    <t>position_hold</t>
+  </si>
+  <si>
     <t>control_seq_2</t>
   </si>
   <si>
@@ -461,6 +517,9 @@
     <t>control_seq_19</t>
   </si>
   <si>
+    <t>altitude_hold</t>
+  </si>
+  <si>
     <t>control_seq_20</t>
   </si>
   <si>
@@ -473,240 +532,246 @@
     <t>control_seq_25</t>
   </si>
   <si>
+    <t>stabilized</t>
+  </si>
+  <si>
     <t>control_seq_26</t>
   </si>
   <si>
     <t>control_seq_27</t>
   </si>
   <si>
+    <t>rate</t>
+  </si>
+  <si>
     <t>control_seq_28</t>
   </si>
   <si>
     <t>manual</t>
   </si>
   <si>
-    <t>position_hold</t>
-  </si>
-  <si>
-    <t>stabilized</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>x, y</t>
-  </si>
-  <si>
-    <t>vx, vy</t>
-  </si>
-  <si>
-    <t>ax, ay</t>
-  </si>
-  <si>
-    <t>phi, th</t>
-  </si>
-  <si>
-    <t>Horizontal motion</t>
-  </si>
-  <si>
-    <t>Vertical motion</t>
-  </si>
-  <si>
-    <t>Tilt</t>
-  </si>
-  <si>
-    <t>Tilt rate</t>
-  </si>
-  <si>
-    <t>Yaw rate</t>
-  </si>
-  <si>
-    <t>Yaw</t>
-  </si>
-  <si>
-    <t>wx, wy</t>
-  </si>
-  <si>
-    <t>Feedback requirement</t>
-  </si>
-  <si>
-    <t>Wrench (body frame)</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>altitude_hold</t>
-  </si>
-  <si>
     <t>System architecture</t>
   </si>
   <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>State estimator</t>
+  </si>
+  <si>
+    <t>Complimentary filter</t>
+  </si>
+  <si>
+    <t>Vehicle specific code</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>Gyroscope</t>
+  </si>
+  <si>
+    <t>Kalman filter</t>
+  </si>
+  <si>
     <t>Flight stack</t>
   </si>
   <si>
-    <t>State estimator</t>
+    <t>Magnetometer</t>
+  </si>
+  <si>
+    <t>Bayesian estimator</t>
+  </si>
+  <si>
+    <t>Barometer</t>
   </si>
   <si>
     <t>Control system</t>
   </si>
   <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>LIDAR</t>
+  </si>
+  <si>
+    <t>IR proximity</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Tachometer</t>
+  </si>
+  <si>
+    <t>Temperature sensor</t>
+  </si>
+  <si>
+    <t>Air speed sensor</t>
+  </si>
+  <si>
+    <t>Angle of attack sensor</t>
+  </si>
+  <si>
+    <t>Actuators</t>
+  </si>
+  <si>
+    <t>Brushed</t>
+  </si>
+  <si>
+    <t>Brushless</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
     <t>Navigation</t>
   </si>
   <si>
+    <t>Go to goal</t>
+  </si>
+  <si>
+    <t>Motor driver</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Way point navigation</t>
+  </si>
+  <si>
+    <t>H bridge</t>
+  </si>
+  <si>
+    <t>Trajectory tracking</t>
+  </si>
+  <si>
+    <t>Data logger</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
     <t>Planning</t>
   </si>
   <si>
-    <t>Vehicle specific code</t>
-  </si>
-  <si>
-    <t>Libraries</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Sensors</t>
-  </si>
-  <si>
-    <t>Actuators</t>
+    <t>Path generation</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>Trajectory generation</t>
+  </si>
+  <si>
+    <t>Audio visual feedback</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Obstacle avoidance</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Propulsion control allocator</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Propulsion control</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>General math</t>
+  </si>
+  <si>
+    <t>max, min, signum, mod, wrap etc</t>
+  </si>
+  <si>
+    <t>Transmitter</t>
+  </si>
+  <si>
+    <t>MatrixMN</t>
+  </si>
+  <si>
+    <t>Transceiver</t>
+  </si>
+  <si>
+    <t>VectorN</t>
   </si>
   <si>
     <t>Power</t>
   </si>
   <si>
-    <t>Telemetry</t>
-  </si>
-  <si>
-    <t>Accelerometer</t>
-  </si>
-  <si>
-    <t>Gyroscope</t>
-  </si>
-  <si>
-    <t>Magnetometer</t>
-  </si>
-  <si>
-    <t>Barometer</t>
-  </si>
-  <si>
-    <t>Sonar</t>
-  </si>
-  <si>
-    <t>LIDAR</t>
-  </si>
-  <si>
-    <t>IR proximity</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Tachometer</t>
-  </si>
-  <si>
-    <t>Audio visual feedback</t>
-  </si>
-  <si>
-    <t>Data logger</t>
-  </si>
-  <si>
-    <t>Brushed</t>
-  </si>
-  <si>
-    <t>Brushless</t>
-  </si>
-  <si>
-    <t>Servo</t>
-  </si>
-  <si>
-    <t>EEPROM</t>
-  </si>
-  <si>
-    <t>SD Card</t>
-  </si>
-  <si>
-    <t>Buzzer</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
-    <t>Receiver</t>
-  </si>
-  <si>
-    <t>Transmitter</t>
-  </si>
-  <si>
-    <t>Transceiver</t>
-  </si>
-  <si>
-    <t>Motor driver</t>
-  </si>
-  <si>
     <t>Buck converter</t>
   </si>
   <si>
+    <t>Complex umber</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
     <t>Boost converter</t>
   </si>
   <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>H bridge</t>
-  </si>
-  <si>
-    <t>Propulsion control allocator</t>
-  </si>
-  <si>
-    <t>Propulsion control</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>Temperature sensor</t>
-  </si>
-  <si>
-    <t>Air speed sensor</t>
-  </si>
-  <si>
-    <t>Angle of attack sensor</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>MatrixMN</t>
-  </si>
-  <si>
-    <t>VectorN</t>
-  </si>
-  <si>
-    <t>Complex umber</t>
-  </si>
-  <si>
-    <t>Algebra</t>
-  </si>
-  <si>
     <t>Integration</t>
   </si>
   <si>
+    <t>Power distribution system</t>
+  </si>
+  <si>
     <t>Differentiation</t>
   </si>
   <si>
+    <t>Planar</t>
+  </si>
+  <si>
+    <t>Spatial</t>
+  </si>
+  <si>
+    <t>Line segment</t>
+  </si>
+  <si>
+    <t>Tetrahedral</t>
+  </si>
+  <si>
+    <t>Prism</t>
+  </si>
+  <si>
+    <t>Conics</t>
+  </si>
+  <si>
     <t>Transformation</t>
   </si>
   <si>
@@ -716,27 +781,6 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Planar</t>
-  </si>
-  <si>
-    <t>Spatial</t>
-  </si>
-  <si>
-    <t>Tetrahedral</t>
-  </si>
-  <si>
-    <t>Line segment</t>
-  </si>
-  <si>
-    <t>Prism</t>
-  </si>
-  <si>
-    <t>Conics</t>
-  </si>
-  <si>
-    <t>General math</t>
-  </si>
-  <si>
     <t>Low pass first order</t>
   </si>
   <si>
@@ -770,37 +814,106 @@
     <t>Median filter</t>
   </si>
   <si>
-    <t>max, min, signum, mod, wrap etc</t>
-  </si>
-  <si>
-    <t>Complimentary filter</t>
-  </si>
-  <si>
-    <t>Kalman filter</t>
-  </si>
-  <si>
-    <t>Bayesian estimator</t>
-  </si>
-  <si>
-    <t>Power distribution system</t>
-  </si>
-  <si>
-    <t>Go to goal</t>
-  </si>
-  <si>
-    <t>Way point navigation</t>
-  </si>
-  <si>
-    <t>Trajectory generation</t>
-  </si>
-  <si>
-    <t>Trajectory tracking</t>
-  </si>
-  <si>
-    <t>Path generation</t>
-  </si>
-  <si>
-    <t>Obstacle avoidance</t>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>DIO</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>PPM</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>USART</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>SBUS</t>
+  </si>
+  <si>
+    <t>CRSF</t>
+  </si>
+  <si>
+    <t>DSM2/DSMX</t>
+  </si>
+  <si>
+    <t>MAVLink</t>
+  </si>
+  <si>
+    <t>FPort</t>
+  </si>
+  <si>
+    <t>S.Port</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Scheduler</t>
+  </si>
+  <si>
+    <t>RTOS</t>
+  </si>
+  <si>
+    <t>SDIO</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>EtherCAT</t>
+  </si>
+  <si>
+    <t>Modbus</t>
+  </si>
+  <si>
+    <t>Profinet</t>
+  </si>
+  <si>
+    <t>SHM</t>
+  </si>
+  <si>
+    <t>CMSIS</t>
+  </si>
+  <si>
+    <t>Bootloader</t>
+  </si>
+  <si>
+    <t>RS-232</t>
+  </si>
+  <si>
+    <t>RS-485</t>
+  </si>
+  <si>
+    <t>RS-422</t>
+  </si>
+  <si>
+    <t>TTL</t>
   </si>
 </sst>
 </file>
@@ -925,7 +1038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1564,9 +1677,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1575,12 +1686,31 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1590,7 +1720,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1889,6 +2019,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1937,56 +2068,52 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2294,22 +2421,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2317,18 +2444,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="30"/>
       <c r="F2" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="149"/>
+        <v>7</v>
+      </c>
+      <c r="H2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="150"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2336,18 +2463,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="4"/>
       <c r="F3" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="151"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="152"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2355,18 +2482,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="4"/>
       <c r="F4" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="153"/>
+        <v>7</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="154"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2374,13 +2501,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
       <c r="E5" s="4"/>
       <c r="F5" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2388,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
       <c r="E6" s="4"/>
       <c r="F6" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2402,13 +2529,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
       <c r="E7" s="4"/>
       <c r="F7" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2416,13 +2543,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="25"/>
       <c r="E8" s="4"/>
       <c r="F8" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2430,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="25"/>
       <c r="E9" s="4"/>
       <c r="F9" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2444,13 +2571,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="25"/>
       <c r="E10" s="4"/>
       <c r="F10" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2458,13 +2585,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="25"/>
       <c r="E11" s="4"/>
       <c r="F11" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2472,13 +2599,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="25"/>
       <c r="E12" s="4"/>
       <c r="F12" s="38" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2486,13 +2613,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="25"/>
       <c r="E13" s="4"/>
       <c r="F13" s="38" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,13 +2627,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="41"/>
       <c r="E14" s="8"/>
       <c r="F14" s="39" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2541,104 +2668,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="165" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C1" s="165"/>
       <c r="D1" s="166"/>
       <c r="E1" s="165" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F1" s="165"/>
       <c r="G1" s="165"/>
       <c r="H1" s="56" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="I1" s="92" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="L1" s="165" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="M1" s="165"/>
       <c r="N1" s="165"/>
       <c r="O1" s="165"/>
       <c r="P1" s="165"/>
       <c r="Q1" s="165"/>
-      <c r="R1" s="162" t="s">
+      <c r="R1" s="163" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="163" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="160"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="164"/>
+      <c r="B2" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="162" t="s">
+      <c r="D2" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="U1" s="159"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163"/>
-      <c r="B2" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="109" t="s">
-        <v>152</v>
-      </c>
       <c r="E2" s="76" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="K2" s="94" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="L2" s="76" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M2" s="109" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="N2" s="76" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="O2" s="109" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="P2" s="76" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="161"/>
+        <v>145</v>
+      </c>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="162"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84">
@@ -2661,10 +2788,10 @@
       <c r="P3" s="77"/>
       <c r="Q3" s="86"/>
       <c r="R3" s="115" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="S3" s="105" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="T3" s="106"/>
       <c r="U3" s="107"/>
@@ -2690,10 +2817,10 @@
       <c r="P4" s="71"/>
       <c r="Q4" s="81"/>
       <c r="R4" s="116" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="S4" s="100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T4" s="101"/>
       <c r="U4" s="96"/>
@@ -2719,7 +2846,7 @@
       <c r="P5" s="64"/>
       <c r="Q5" s="82"/>
       <c r="R5" s="117" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="S5" s="91"/>
       <c r="T5" s="95"/>
@@ -2746,7 +2873,7 @@
       <c r="P6" s="64"/>
       <c r="Q6" s="82"/>
       <c r="R6" s="117" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="S6" s="91"/>
       <c r="T6" s="95"/>
@@ -2773,7 +2900,7 @@
       <c r="P7" s="73"/>
       <c r="Q7" s="83"/>
       <c r="R7" s="118" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="S7" s="114"/>
       <c r="T7" s="102"/>
@@ -2800,10 +2927,10 @@
       <c r="P8" s="71"/>
       <c r="Q8" s="81"/>
       <c r="R8" s="116" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="S8" s="100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T8" s="101"/>
       <c r="U8" s="96"/>
@@ -2829,7 +2956,7 @@
       <c r="P9" s="64"/>
       <c r="Q9" s="82"/>
       <c r="R9" s="117" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="S9" s="91"/>
       <c r="T9" s="95"/>
@@ -2856,7 +2983,7 @@
       <c r="P10" s="64"/>
       <c r="Q10" s="82"/>
       <c r="R10" s="117" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="S10" s="91"/>
       <c r="T10" s="95"/>
@@ -2883,7 +3010,7 @@
       <c r="P11" s="73"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="118" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="S11" s="114"/>
       <c r="T11" s="102"/>
@@ -2910,10 +3037,10 @@
       <c r="P12" s="66"/>
       <c r="Q12" s="89"/>
       <c r="R12" s="119" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="S12" s="110" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="T12" s="111"/>
       <c r="U12" s="112"/>
@@ -2939,10 +3066,10 @@
       <c r="P13" s="64"/>
       <c r="Q13" s="82"/>
       <c r="R13" s="117" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="S13" s="90" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="T13" s="95"/>
       <c r="U13" s="97"/>
@@ -2968,10 +3095,10 @@
       <c r="P14" s="64"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="117" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S14" s="90" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="T14" s="95"/>
       <c r="U14" s="97"/>
@@ -2997,10 +3124,10 @@
       <c r="P15" s="75"/>
       <c r="Q15" s="123"/>
       <c r="R15" s="120" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="S15" s="103" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="T15" s="104"/>
       <c r="U15" s="99"/>
@@ -3026,10 +3153,10 @@
       <c r="P16" s="68"/>
       <c r="Q16" s="124"/>
       <c r="R16" s="116" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="S16" s="100" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="T16" s="101"/>
       <c r="U16" s="96"/>
@@ -3055,10 +3182,10 @@
       <c r="P17" s="69"/>
       <c r="Q17" s="125"/>
       <c r="R17" s="118" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="S17" s="113" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="T17" s="102"/>
       <c r="U17" s="98"/>
@@ -3084,10 +3211,10 @@
       <c r="P18" s="79"/>
       <c r="Q18" s="80"/>
       <c r="R18" s="121" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="S18" s="108" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="T18" s="106"/>
       <c r="U18" s="107"/>
@@ -3113,10 +3240,10 @@
       <c r="P19" s="79"/>
       <c r="Q19" s="80"/>
       <c r="R19" s="115" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="S19" s="105" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="T19" s="106"/>
       <c r="U19" s="107"/>
@@ -3158,104 +3285,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="164" t="s">
-        <v>154</v>
+      <c r="C1" s="167" t="s">
+        <v>120</v>
       </c>
       <c r="D1" s="165"/>
       <c r="E1" s="166"/>
-      <c r="G1" s="164" t="s">
-        <v>155</v>
+      <c r="G1" s="167" t="s">
+        <v>121</v>
       </c>
       <c r="H1" s="165"/>
       <c r="I1" s="166"/>
       <c r="K1" s="56" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" s="164" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="S1" s="167" t="s">
+        <v>126</v>
       </c>
       <c r="T1" s="165"/>
       <c r="U1" s="165"/>
       <c r="V1" s="165"/>
       <c r="W1" s="165"/>
       <c r="X1" s="166"/>
-      <c r="Z1" s="162" t="s">
+      <c r="Z1" s="163" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="163" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="160"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="164"/>
+      <c r="C2" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="162" t="s">
+      <c r="E2" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC1" s="159"/>
-    </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163"/>
-      <c r="C2" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>152</v>
-      </c>
       <c r="G2" s="76" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K2" s="76" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="O2" s="76" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="76" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="S2" s="76" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="T2" s="109" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="U2" s="76" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="V2" s="109" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="X2" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="161"/>
+        <v>145</v>
+      </c>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="162"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84">
@@ -3278,10 +3405,10 @@
       <c r="W3" s="77"/>
       <c r="X3" s="86"/>
       <c r="Z3" s="128" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AA3" s="105" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AB3" s="106"/>
       <c r="AC3" s="107"/>
@@ -3307,10 +3434,10 @@
       <c r="W4" s="71"/>
       <c r="X4" s="81"/>
       <c r="Z4" s="129" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AA4" s="100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB4" s="101"/>
       <c r="AC4" s="96"/>
@@ -3336,7 +3463,7 @@
       <c r="W5" s="64"/>
       <c r="X5" s="82"/>
       <c r="Z5" s="130" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AA5" s="91"/>
       <c r="AB5" s="95"/>
@@ -3363,7 +3490,7 @@
       <c r="W6" s="64"/>
       <c r="X6" s="82"/>
       <c r="Z6" s="130" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="91"/>
       <c r="AB6" s="95"/>
@@ -3390,7 +3517,7 @@
       <c r="W7" s="73"/>
       <c r="X7" s="83"/>
       <c r="Z7" s="131" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AA7" s="114"/>
       <c r="AB7" s="102"/>
@@ -3417,10 +3544,10 @@
       <c r="W8" s="71"/>
       <c r="X8" s="81"/>
       <c r="Z8" s="129" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AA8" s="100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB8" s="101"/>
       <c r="AC8" s="96"/>
@@ -3446,7 +3573,7 @@
       <c r="W9" s="64"/>
       <c r="X9" s="82"/>
       <c r="Z9" s="130" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AA9" s="91"/>
       <c r="AB9" s="95"/>
@@ -3473,7 +3600,7 @@
       <c r="W10" s="64"/>
       <c r="X10" s="82"/>
       <c r="Z10" s="130" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AA10" s="91"/>
       <c r="AB10" s="95"/>
@@ -3500,7 +3627,7 @@
       <c r="W11" s="73"/>
       <c r="X11" s="83"/>
       <c r="Z11" s="131" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AA11" s="114"/>
       <c r="AB11" s="102"/>
@@ -3527,10 +3654,10 @@
       <c r="W12" s="66"/>
       <c r="X12" s="89"/>
       <c r="Z12" s="132" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AA12" s="110" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AB12" s="111"/>
       <c r="AC12" s="112"/>
@@ -3556,10 +3683,10 @@
       <c r="W13" s="64"/>
       <c r="X13" s="82"/>
       <c r="Z13" s="130" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="AA13" s="90" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AB13" s="95"/>
       <c r="AC13" s="97"/>
@@ -3585,10 +3712,10 @@
       <c r="W14" s="64"/>
       <c r="X14" s="82"/>
       <c r="Z14" s="130" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="AA14" s="90" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AB14" s="95"/>
       <c r="AC14" s="97"/>
@@ -3614,10 +3741,10 @@
       <c r="W15" s="75"/>
       <c r="X15" s="123"/>
       <c r="Z15" s="133" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AA15" s="103" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AB15" s="104"/>
       <c r="AC15" s="99"/>
@@ -3643,10 +3770,10 @@
       <c r="W16" s="68"/>
       <c r="X16" s="124"/>
       <c r="Z16" s="129" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="AA16" s="100" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AB16" s="101"/>
       <c r="AC16" s="96"/>
@@ -3672,10 +3799,10 @@
       <c r="W17" s="69"/>
       <c r="X17" s="125"/>
       <c r="Z17" s="131" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AA17" s="113" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AB17" s="102"/>
       <c r="AC17" s="98"/>
@@ -3701,10 +3828,10 @@
       <c r="W18" s="79"/>
       <c r="X18" s="80"/>
       <c r="Z18" s="134" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="AA18" s="108" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="AB18" s="106"/>
       <c r="AC18" s="107"/>
@@ -3730,10 +3857,10 @@
       <c r="W19" s="79"/>
       <c r="X19" s="80"/>
       <c r="Z19" s="128" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AA19" s="105" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AB19" s="106"/>
       <c r="AC19" s="107"/>
@@ -3755,10 +3882,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF7264C-E7A0-49C5-B2A0-72B8B547DC0E}">
-  <dimension ref="A2:O62"/>
+  <dimension ref="A2:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,730 +3911,955 @@
         <v>165</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="171" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="174" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="148" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="O2" s="148" t="s">
         <v>174</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="156" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="156" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="168" t="s">
-        <v>209</v>
-      </c>
-      <c r="O2" s="168" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="175"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="2" t="s">
-        <v>244</v>
+        <v>175</v>
+      </c>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="174" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="175"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="2" t="s">
-        <v>245</v>
+        <v>178</v>
+      </c>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="174" t="s">
+        <v>179</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="175"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="172"/>
+      <c r="H5" s="179" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
+      <c r="I5" s="180" t="s">
+        <v>6</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="175"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="169"/>
       <c r="E6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="2" t="s">
-        <v>0</v>
+      <c r="G6" s="172"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="180" t="s">
+        <v>9</v>
       </c>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="175"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="169"/>
       <c r="E7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="2" t="s">
-        <v>1</v>
+      <c r="G7" s="172"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="180" t="s">
+        <v>11</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="175"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
+      <c r="G8" s="172"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="180" t="s">
+        <v>13</v>
       </c>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="175"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="169"/>
       <c r="E9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="2" t="s">
-        <v>2</v>
+      <c r="G9" s="172"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="180" t="s">
+        <v>14</v>
       </c>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="175"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="2" t="s">
-        <v>3</v>
+        <v>186</v>
+      </c>
+      <c r="G10" s="172"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180" t="s">
+        <v>15</v>
       </c>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="175"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="2" t="s">
-        <v>35</v>
+        <v>187</v>
+      </c>
+      <c r="G11" s="172"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180" t="s">
+        <v>16</v>
       </c>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="175"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="2" t="s">
-        <v>4</v>
+      <c r="G12" s="172"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="180" t="s">
+        <v>17</v>
       </c>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="175"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>189</v>
+      </c>
+      <c r="G13" s="172"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="180" t="s">
+        <v>18</v>
       </c>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="175"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="2" t="s">
-        <v>74</v>
+        <v>190</v>
+      </c>
+      <c r="G14" s="172"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="180" t="s">
+        <v>19</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="170"/>
       <c r="E15" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="2" t="s">
-        <v>75</v>
+        <v>191</v>
+      </c>
+      <c r="G15" s="172"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="180" t="s">
+        <v>20</v>
       </c>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="174" t="s">
-        <v>175</v>
+      <c r="C16" s="171"/>
+      <c r="D16" s="168" t="s">
+        <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
+      </c>
+      <c r="G16" s="172"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180" t="s">
+        <v>22</v>
       </c>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="175"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="2" t="s">
-        <v>80</v>
+        <v>194</v>
+      </c>
+      <c r="G17" s="172"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="180" t="s">
+        <v>23</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>247</v>
+        <v>195</v>
+      </c>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="174" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="177" t="s">
-        <v>202</v>
+      <c r="C19" s="171"/>
+      <c r="D19" s="168" t="s">
+        <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="2" t="s">
-        <v>248</v>
+        <v>199</v>
+      </c>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="174" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="178"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="170"/>
       <c r="E20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="2" t="s">
-        <v>250</v>
+        <v>201</v>
+      </c>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="174" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="174" t="s">
-        <v>190</v>
+      <c r="C21" s="171"/>
+      <c r="D21" s="168" t="s">
+        <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="156"/>
-      <c r="H21" s="170" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>251</v>
+        <v>204</v>
+      </c>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="174" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="170"/>
       <c r="E22" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="156"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
+      </c>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="174" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="174" t="s">
-        <v>189</v>
+      <c r="C23" s="171"/>
+      <c r="D23" s="168" t="s">
+        <v>209</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="156"/>
+        <v>210</v>
+      </c>
+      <c r="G23" s="172"/>
       <c r="H23" s="172"/>
-      <c r="I23" s="2" t="s">
-        <v>252</v>
+      <c r="I23" s="174" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="175"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="156"/>
-      <c r="H24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I24" s="167"/>
+        <v>212</v>
+      </c>
+      <c r="G24" s="172"/>
+      <c r="H24" s="173" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="170"/>
       <c r="E25" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="156"/>
-      <c r="H25" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I25" s="167"/>
+        <v>214</v>
+      </c>
+      <c r="G25" s="172"/>
+      <c r="H25" s="173" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="174" t="s">
-        <v>177</v>
+      <c r="C26" s="171"/>
+      <c r="D26" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" s="156"/>
-      <c r="H26" s="173" t="s">
-        <v>214</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J26" s="180" t="s">
-        <v>242</v>
+        <v>217</v>
+      </c>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="174" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="174" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="175"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="156"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="156" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="180" t="s">
-        <v>215</v>
+        <v>221</v>
+      </c>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="174" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="176"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="170"/>
       <c r="E28" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="156"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="180" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="174" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="156" t="s">
-        <v>176</v>
+      <c r="C29" s="171"/>
+      <c r="D29" s="157" t="s">
+        <v>225</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="156"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="156" t="s">
-        <v>217</v>
-      </c>
-      <c r="J29" s="180" t="s">
-        <v>218</v>
+        <v>226</v>
+      </c>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="175" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" s="174" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="156"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="157"/>
       <c r="E30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="156"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="180" t="s">
-        <v>219</v>
+        <v>229</v>
+      </c>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="174" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="169"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="179" t="s">
+      <c r="C31" s="171"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="174" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="175" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="174" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="174" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="175" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="174" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="174" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="174" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="174" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" s="176" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G43" s="172"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="176" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="176" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="176" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="172"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="174" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="174" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="172"/>
+      <c r="H49" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="180" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="180" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="172"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="180" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="172"/>
+      <c r="H52" s="172"/>
+      <c r="I52" s="180" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="172"/>
+      <c r="H53" s="172"/>
+      <c r="I53" s="180" t="s">
         <v>246</v>
       </c>
-      <c r="G31" s="156"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="156"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="156" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="180" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="156"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="180" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="156"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="156"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="156" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="180" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="156"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="180" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G37" s="156"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="180" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G38" s="156"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="156"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="180" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="156"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="180" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="156"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="180" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="156"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="181" t="s">
-        <v>229</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="156"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="156"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="181"/>
-      <c r="K44" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="156"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="156"/>
-      <c r="H46" s="173"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="180" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G47" s="156"/>
-      <c r="H47" s="173"/>
-      <c r="I47" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="156"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G49" s="156"/>
-      <c r="H49" s="156" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51" s="156"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="2" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="2" t="s">
-        <v>236</v>
+      <c r="G54" s="172"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="180" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="2" t="s">
-        <v>237</v>
+      <c r="G55" s="172"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="180" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="2" t="s">
-        <v>238</v>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="174" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="2" t="s">
-        <v>239</v>
+      <c r="G57" s="172"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="174" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="2" t="s">
-        <v>240</v>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="174" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="2" t="s">
-        <v>241</v>
+      <c r="G59" s="172"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="177" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="172"/>
+      <c r="H60" s="172" t="s">
+        <v>253</v>
+      </c>
+      <c r="I60" s="178" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G61" s="167"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
+      <c r="I61" s="178" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G62" s="167"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="178" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="178" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="178" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="178" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="172"/>
+      <c r="H66" s="172"/>
+      <c r="I66" s="178" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="172"/>
+      <c r="H67" s="172"/>
+      <c r="I67" s="178" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="178" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="178" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="172"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="178" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="172"/>
+      <c r="H71" s="172"/>
+      <c r="I71" s="178" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="172"/>
+      <c r="H72" s="172"/>
+      <c r="I72" s="178" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="172"/>
+      <c r="H73" s="172"/>
+      <c r="I73" s="178" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="172"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="178" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="172"/>
+      <c r="H75" s="172"/>
+      <c r="I75" s="178" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="178" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="172"/>
+      <c r="H77" s="172"/>
+      <c r="I77" s="178" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="172"/>
+      <c r="H78" s="172"/>
+      <c r="I78" s="178" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="172"/>
+      <c r="H79" s="172"/>
+      <c r="I79" s="178" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="172"/>
+      <c r="H80" s="172"/>
+      <c r="I80" s="178" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="172"/>
+      <c r="H81" s="172"/>
+      <c r="I81" s="178" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="172"/>
+      <c r="H82" s="172"/>
+      <c r="I82" s="178" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="172"/>
+      <c r="H83" s="172"/>
+      <c r="I83" s="178" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="172"/>
+      <c r="H84" s="172"/>
+      <c r="I84" s="178" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="172"/>
+      <c r="H85" s="172"/>
+      <c r="I85" s="178" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="172"/>
+      <c r="H86" s="172"/>
+      <c r="I86" s="178" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G87" s="172"/>
+      <c r="H87" s="172"/>
+      <c r="I87" s="178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G88" s="172"/>
+      <c r="H88" s="172"/>
+      <c r="I88" s="178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="172"/>
+      <c r="H89" s="172"/>
+      <c r="I89" s="178" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="172"/>
+      <c r="H90" s="172"/>
+      <c r="I90" s="178" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G91" s="172"/>
+      <c r="H91" s="172"/>
+      <c r="I91" s="178" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G92" s="172"/>
+      <c r="H92" s="172"/>
+      <c r="I92" s="178" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="172"/>
+      <c r="H93" s="172"/>
+      <c r="I93" s="178" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G2:G59"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I35:I46"/>
-    <mergeCell ref="H26:H48"/>
-    <mergeCell ref="H49:H59"/>
+  <mergeCells count="21">
     <mergeCell ref="J42:J45"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I31"/>
@@ -4515,12 +4867,20 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D28"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="H26:H48"/>
     <mergeCell ref="D2:D15"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C2:C31"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H17"/>
+    <mergeCell ref="G2:G93"/>
+    <mergeCell ref="H60:H93"/>
+    <mergeCell ref="H49:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4617,19 +4977,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4637,15 +4997,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="149"/>
+      <c r="G2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="150"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4653,15 +5013,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="151"/>
+      <c r="G3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="152"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4669,15 +5029,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="153"/>
+      <c r="G4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="154"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4685,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
@@ -4696,7 +5056,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
@@ -4707,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
@@ -4718,7 +5078,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="25"/>
@@ -4729,7 +5089,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
@@ -4740,7 +5100,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="25"/>
@@ -4751,7 +5111,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="4"/>
@@ -4762,7 +5122,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="4"/>
@@ -4773,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="53"/>
@@ -4784,7 +5144,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="53"/>
@@ -4795,7 +5155,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="53"/>
@@ -4806,7 +5166,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="54"/>
@@ -4838,19 +5198,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4858,15 +5218,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="149"/>
+      <c r="G2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="150"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4874,15 +5234,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="151"/>
+      <c r="G3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="152"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4890,15 +5250,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="153"/>
+      <c r="G4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="154"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4906,7 +5266,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="4"/>
@@ -4938,19 +5298,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4958,15 +5318,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="149"/>
+      <c r="G2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="150"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4974,15 +5334,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="151"/>
+      <c r="G3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="152"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4990,15 +5350,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="153"/>
+      <c r="G4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="154"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5006,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="4"/>
@@ -5017,7 +5377,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="4"/>
@@ -5028,7 +5388,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="4"/>
@@ -5039,7 +5399,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="4"/>
@@ -5050,7 +5410,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
@@ -5061,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="8"/>
@@ -5093,19 +5453,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5113,15 +5473,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="149"/>
+      <c r="G2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="150"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5129,15 +5489,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="151"/>
+      <c r="G3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="152"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5145,15 +5505,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="153"/>
+      <c r="G4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="154"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5161,7 +5521,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="4"/>
@@ -5172,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="8"/>
@@ -5205,84 +5565,84 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="154" t="s">
-        <v>65</v>
+      <c r="B2" s="155" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="149"/>
+      <c r="H2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="150"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="155"/>
+      <c r="B3" s="156"/>
       <c r="C3" s="44" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="151"/>
+      <c r="H3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="152"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="155"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="44" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="153"/>
+      <c r="H4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="154"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="155"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5292,9 +5652,9 @@
       <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="155"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="44" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5304,9 +5664,9 @@
       <c r="A7" s="42">
         <v>6</v>
       </c>
-      <c r="B7" s="155"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="44" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5316,9 +5676,9 @@
       <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="155"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="44" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5329,7 +5689,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="4"/>
@@ -5341,7 +5701,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="4"/>
@@ -5353,7 +5713,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="8"/>
@@ -5387,19 +5747,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5407,15 +5767,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="55"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="149"/>
+      <c r="G2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="150"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5423,15 +5783,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="151"/>
+      <c r="G3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="152"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5439,15 +5799,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="153"/>
+      <c r="G4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="154"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5455,7 +5815,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="4"/>
@@ -5466,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="4"/>
@@ -5477,7 +5837,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
@@ -5509,19 +5869,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5529,15 +5889,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="149"/>
+      <c r="G2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="150"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5545,15 +5905,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="151"/>
+      <c r="G3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="152"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5561,15 +5921,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="153"/>
+      <c r="G4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="154"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5577,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="4"/>
@@ -5588,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="4"/>
@@ -5599,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="4"/>
@@ -5610,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="4"/>
@@ -5621,7 +5981,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
@@ -5632,7 +5992,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="8"/>
@@ -5663,192 +6023,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
-        <v>33</v>
+      <c r="A1" s="157" t="s">
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="156"/>
+      <c r="A2" s="157"/>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="149"/>
+      <c r="D2" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="150"/>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="151"/>
+      <c r="D3" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="152"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="153"/>
+      <c r="D4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="154"/>
       <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
-        <v>7</v>
+      <c r="A6" s="157" t="s">
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="157" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="157"/>
+      <c r="K6" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="158"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="156"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="156"/>
+      <c r="A14" s="157"/>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="156"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="156"/>
+      <c r="A17" s="157"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
+      <c r="A18" s="157"/>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
+      <c r="A19" s="157"/>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
+      <c r="A20" s="157"/>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="156" t="s">
-        <v>9</v>
+      <c r="A22" s="157" t="s">
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1"/>
     </row>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -2020,6 +2020,24 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2077,43 +2095,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2452,10 +2452,10 @@
       <c r="F2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="150"/>
+      <c r="I2" s="156"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2471,10 +2471,10 @@
       <c r="F3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="152"/>
+      <c r="I3" s="158"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2490,10 +2490,10 @@
       <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="154"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,19 +2668,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="165" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
       <c r="H1" s="56" t="s">
         <v>122</v>
       </c>
@@ -2693,27 +2693,27 @@
       <c r="K1" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="165" t="s">
+      <c r="L1" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="163" t="s">
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="163" t="s">
+      <c r="S1" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="159" t="s">
+      <c r="T1" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="160"/>
+      <c r="U1" s="166"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164"/>
+      <c r="A2" s="170"/>
       <c r="B2" s="109" t="s">
         <v>130</v>
       </c>
@@ -2762,10 +2762,10 @@
       <c r="Q2" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="162"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="168"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84">
@@ -3285,19 +3285,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="173" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="166"/>
-      <c r="G1" s="167" t="s">
+      <c r="D1" s="171"/>
+      <c r="E1" s="172"/>
+      <c r="G1" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="166"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
       <c r="K1" s="56" t="s">
         <v>122</v>
       </c>
@@ -3310,27 +3310,27 @@
       <c r="Q1" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="167" t="s">
+      <c r="S1" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="166"/>
-      <c r="Z1" s="163" t="s">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="172"/>
+      <c r="Z1" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="163" t="s">
+      <c r="AA1" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" s="159" t="s">
+      <c r="AB1" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" s="160"/>
+      <c r="AC1" s="166"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164"/>
+      <c r="A2" s="170"/>
       <c r="C2" s="93" t="s">
         <v>130</v>
       </c>
@@ -3379,10 +3379,10 @@
       <c r="X2" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="162"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="168"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84">
@@ -3884,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF7264C-E7A0-49C5-B2A0-72B8B547DC0E}">
   <dimension ref="A2:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,22 +3911,22 @@
         <v>165</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="179" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="175" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="172" t="s">
+      <c r="G2" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="174" t="s">
+      <c r="I2" s="150" t="s">
         <v>171</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -3942,14 +3942,14 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="169"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="174" t="s">
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="150" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3958,14 +3958,14 @@
         <v>177</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="169"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="177"/>
       <c r="E4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="174" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="150" t="s">
         <v>179</v>
       </c>
       <c r="J4"/>
@@ -3973,16 +3973,16 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="169"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="172"/>
-      <c r="H5" s="179" t="s">
+      <c r="G5" s="178"/>
+      <c r="H5" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="180" t="s">
+      <c r="I5" s="154" t="s">
         <v>6</v>
       </c>
       <c r="J5"/>
@@ -3990,14 +3990,14 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="169"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="177"/>
       <c r="E6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="172"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="180" t="s">
+      <c r="G6" s="178"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="154" t="s">
         <v>9</v>
       </c>
       <c r="J6"/>
@@ -4005,14 +4005,14 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="177"/>
       <c r="E7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="172"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="180" t="s">
+      <c r="G7" s="178"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="154" t="s">
         <v>11</v>
       </c>
       <c r="J7"/>
@@ -4020,14 +4020,14 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="169"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="177"/>
       <c r="E8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="172"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="180" t="s">
+      <c r="G8" s="178"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="154" t="s">
         <v>13</v>
       </c>
       <c r="J8"/>
@@ -4035,14 +4035,14 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="169"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="172"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="180" t="s">
+      <c r="G9" s="178"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="154" t="s">
         <v>14</v>
       </c>
       <c r="J9"/>
@@ -4050,14 +4050,14 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="169"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="177"/>
       <c r="E10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="172"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180" t="s">
+      <c r="G10" s="178"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="154" t="s">
         <v>15</v>
       </c>
       <c r="J10"/>
@@ -4065,14 +4065,14 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="169"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="172"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="180" t="s">
+      <c r="G11" s="178"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="154" t="s">
         <v>16</v>
       </c>
       <c r="J11"/>
@@ -4080,14 +4080,14 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="169"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="177"/>
       <c r="E12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="172"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="180" t="s">
+      <c r="G12" s="178"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="154" t="s">
         <v>17</v>
       </c>
       <c r="J12"/>
@@ -4095,14 +4095,14 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="169"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="177"/>
       <c r="E13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="172"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="180" t="s">
+      <c r="G13" s="178"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="154" t="s">
         <v>18</v>
       </c>
       <c r="J13"/>
@@ -4110,14 +4110,14 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="177"/>
       <c r="E14" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="172"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="180" t="s">
+      <c r="G14" s="178"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="154" t="s">
         <v>19</v>
       </c>
       <c r="J14"/>
@@ -4125,14 +4125,14 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="170"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="172"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="180" t="s">
+      <c r="G15" s="178"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="154" t="s">
         <v>20</v>
       </c>
       <c r="J15"/>
@@ -4140,16 +4140,16 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="168" t="s">
+      <c r="C16" s="179"/>
+      <c r="D16" s="175" t="s">
         <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="172"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="180" t="s">
+      <c r="G16" s="178"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="154" t="s">
         <v>22</v>
       </c>
       <c r="J16"/>
@@ -4157,14 +4157,14 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="169"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="172"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="180" t="s">
+      <c r="G17" s="178"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="154" t="s">
         <v>23</v>
       </c>
       <c r="J17"/>
@@ -4172,256 +4172,256 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="170"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172" t="s">
+      <c r="G18" s="178"/>
+      <c r="H18" s="178" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="174" t="s">
+      <c r="I18" s="150" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="168" t="s">
+      <c r="C19" s="179"/>
+      <c r="D19" s="175" t="s">
         <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="174" t="s">
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="150" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="170"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="174" t="s">
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="150" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="168" t="s">
+      <c r="C21" s="179"/>
+      <c r="D21" s="175" t="s">
         <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172" t="s">
+      <c r="G21" s="178"/>
+      <c r="H21" s="178" t="s">
         <v>205</v>
       </c>
-      <c r="I21" s="174" t="s">
+      <c r="I21" s="150" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="170"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="174" t="s">
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="150" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="168" t="s">
+      <c r="C23" s="179"/>
+      <c r="D23" s="175" t="s">
         <v>209</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="174" t="s">
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="150" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="169"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="177"/>
       <c r="E24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="172"/>
-      <c r="H24" s="173" t="s">
+      <c r="G24" s="178"/>
+      <c r="H24" s="149" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="170"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="172"/>
-      <c r="H25" s="173" t="s">
+      <c r="G25" s="178"/>
+      <c r="H25" s="149" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="168" t="s">
+      <c r="C26" s="179"/>
+      <c r="D26" s="175" t="s">
         <v>216</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172" t="s">
+      <c r="G26" s="178"/>
+      <c r="H26" s="178" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="J26" s="174" t="s">
+      <c r="J26" s="150" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="169"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="177"/>
       <c r="E27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="175" t="s">
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="174" t="s">
+      <c r="J27" s="150" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="170"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="176"/>
       <c r="E28" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="174" t="s">
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="150" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="157" t="s">
+      <c r="C29" s="179"/>
+      <c r="D29" s="163" t="s">
         <v>225</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="175" t="s">
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="174" t="s">
         <v>227</v>
       </c>
-      <c r="J29" s="174" t="s">
+      <c r="J29" s="150" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="157"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="174" t="s">
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="150" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="171"/>
-      <c r="D31" s="157"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="174" t="s">
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="150" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="175" t="s">
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="174" t="s">
+      <c r="J32" s="150" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="174" t="s">
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="150" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="174" t="s">
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="150" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="175" t="s">
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="174" t="s">
+      <c r="J35" s="150" t="s">
         <v>98</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -4432,434 +4432,443 @@
       </c>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="174" t="s">
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="150" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="174" t="s">
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="150" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="174" t="s">
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="150" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="174" t="s">
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="150" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="174" t="s">
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="150" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="174" t="s">
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="150" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="175" t="s">
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174" t="s">
         <v>238</v>
       </c>
-      <c r="K42" s="176" t="s">
+      <c r="K42" s="151" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="176" t="s">
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="151" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="176" t="s">
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="151" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="176" t="s">
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="151" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="172"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="174" t="s">
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="174"/>
+      <c r="J46" s="150" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G47" s="172"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="174" t="s">
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="150" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="174" t="s">
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="150" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G49" s="172"/>
-      <c r="H49" s="172" t="s">
+      <c r="G49" s="178"/>
+      <c r="H49" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="180" t="s">
+      <c r="I49" s="154" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G50" s="172"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="180" t="s">
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="154" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51" s="172"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="180" t="s">
+      <c r="G51" s="178"/>
+      <c r="H51" s="178"/>
+      <c r="I51" s="154" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="172"/>
-      <c r="H52" s="172"/>
-      <c r="I52" s="180" t="s">
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="154" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="180" t="s">
+      <c r="G53" s="178"/>
+      <c r="H53" s="178"/>
+      <c r="I53" s="154" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G54" s="172"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="180" t="s">
+      <c r="G54" s="178"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="154" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G55" s="172"/>
-      <c r="H55" s="172"/>
-      <c r="I55" s="180" t="s">
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="154" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G56" s="172"/>
-      <c r="H56" s="172"/>
-      <c r="I56" s="174" t="s">
+      <c r="G56" s="178"/>
+      <c r="H56" s="178"/>
+      <c r="I56" s="150" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G57" s="172"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="174" t="s">
+      <c r="G57" s="178"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="150" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G58" s="172"/>
-      <c r="H58" s="172"/>
-      <c r="I58" s="174" t="s">
+      <c r="G58" s="178"/>
+      <c r="H58" s="178"/>
+      <c r="I58" s="150" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G59" s="172"/>
-      <c r="H59" s="172"/>
-      <c r="I59" s="177" t="s">
+      <c r="G59" s="178"/>
+      <c r="H59" s="178"/>
+      <c r="I59" s="152" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G60" s="172"/>
-      <c r="H60" s="172" t="s">
+      <c r="G60" s="178"/>
+      <c r="H60" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="I60" s="178" t="s">
+      <c r="I60" s="153" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G61" s="172"/>
-      <c r="H61" s="172"/>
-      <c r="I61" s="178" t="s">
+      <c r="G61" s="178"/>
+      <c r="H61" s="178"/>
+      <c r="I61" s="153" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="178" t="s">
+      <c r="G62" s="178"/>
+      <c r="H62" s="178"/>
+      <c r="I62" s="153" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="178" t="s">
+      <c r="G63" s="178"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="153" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G64" s="172"/>
-      <c r="H64" s="172"/>
-      <c r="I64" s="178" t="s">
+      <c r="G64" s="178"/>
+      <c r="H64" s="178"/>
+      <c r="I64" s="153" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G65" s="172"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="178" t="s">
+      <c r="G65" s="178"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="153" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G66" s="172"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="178" t="s">
+      <c r="G66" s="178"/>
+      <c r="H66" s="178"/>
+      <c r="I66" s="153" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G67" s="172"/>
-      <c r="H67" s="172"/>
-      <c r="I67" s="178" t="s">
+      <c r="G67" s="178"/>
+      <c r="H67" s="178"/>
+      <c r="I67" s="153" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G68" s="172"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="178" t="s">
+      <c r="G68" s="178"/>
+      <c r="H68" s="178"/>
+      <c r="I68" s="153" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="178" t="s">
+      <c r="G69" s="178"/>
+      <c r="H69" s="178"/>
+      <c r="I69" s="153" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="70" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G70" s="172"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="178" t="s">
+      <c r="G70" s="178"/>
+      <c r="H70" s="178"/>
+      <c r="I70" s="153" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G71" s="172"/>
-      <c r="H71" s="172"/>
-      <c r="I71" s="178" t="s">
+      <c r="G71" s="178"/>
+      <c r="H71" s="178"/>
+      <c r="I71" s="153" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G72" s="172"/>
-      <c r="H72" s="172"/>
-      <c r="I72" s="178" t="s">
+      <c r="G72" s="178"/>
+      <c r="H72" s="178"/>
+      <c r="I72" s="153" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="73" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G73" s="172"/>
-      <c r="H73" s="172"/>
-      <c r="I73" s="178" t="s">
+      <c r="G73" s="178"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="153" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="74" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G74" s="172"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="178" t="s">
+      <c r="G74" s="178"/>
+      <c r="H74" s="178"/>
+      <c r="I74" s="153" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="75" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G75" s="172"/>
-      <c r="H75" s="172"/>
-      <c r="I75" s="178" t="s">
+      <c r="G75" s="178"/>
+      <c r="H75" s="178"/>
+      <c r="I75" s="153" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="76" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G76" s="172"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="178" t="s">
+      <c r="G76" s="178"/>
+      <c r="H76" s="178"/>
+      <c r="I76" s="153" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="77" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G77" s="172"/>
-      <c r="H77" s="172"/>
-      <c r="I77" s="178" t="s">
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="153" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="78" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G78" s="172"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="178" t="s">
+      <c r="G78" s="178"/>
+      <c r="H78" s="178"/>
+      <c r="I78" s="153" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="79" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="172"/>
-      <c r="H79" s="172"/>
-      <c r="I79" s="178" t="s">
+      <c r="G79" s="178"/>
+      <c r="H79" s="178"/>
+      <c r="I79" s="153" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="80" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="172"/>
-      <c r="H80" s="172"/>
-      <c r="I80" s="178" t="s">
+      <c r="G80" s="178"/>
+      <c r="H80" s="178"/>
+      <c r="I80" s="153" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="81" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G81" s="172"/>
-      <c r="H81" s="172"/>
-      <c r="I81" s="178" t="s">
+      <c r="G81" s="178"/>
+      <c r="H81" s="178"/>
+      <c r="I81" s="153" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="82" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G82" s="172"/>
-      <c r="H82" s="172"/>
-      <c r="I82" s="178" t="s">
+      <c r="G82" s="178"/>
+      <c r="H82" s="178"/>
+      <c r="I82" s="153" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="83" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G83" s="172"/>
-      <c r="H83" s="172"/>
-      <c r="I83" s="178" t="s">
+      <c r="G83" s="178"/>
+      <c r="H83" s="178"/>
+      <c r="I83" s="153" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="84" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G84" s="172"/>
-      <c r="H84" s="172"/>
-      <c r="I84" s="178" t="s">
+      <c r="G84" s="178"/>
+      <c r="H84" s="178"/>
+      <c r="I84" s="153" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="85" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G85" s="172"/>
-      <c r="H85" s="172"/>
-      <c r="I85" s="178" t="s">
+      <c r="G85" s="178"/>
+      <c r="H85" s="178"/>
+      <c r="I85" s="153" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="86" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G86" s="172"/>
-      <c r="H86" s="172"/>
-      <c r="I86" s="178" t="s">
+      <c r="G86" s="178"/>
+      <c r="H86" s="178"/>
+      <c r="I86" s="153" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="87" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G87" s="172"/>
-      <c r="H87" s="172"/>
-      <c r="I87" s="178" t="s">
+      <c r="G87" s="178"/>
+      <c r="H87" s="178"/>
+      <c r="I87" s="153" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G88" s="172"/>
-      <c r="H88" s="172"/>
-      <c r="I88" s="178" t="s">
+      <c r="G88" s="178"/>
+      <c r="H88" s="178"/>
+      <c r="I88" s="153" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="89" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G89" s="172"/>
-      <c r="H89" s="172"/>
-      <c r="I89" s="178" t="s">
+      <c r="G89" s="178"/>
+      <c r="H89" s="178"/>
+      <c r="I89" s="153" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="90" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G90" s="172"/>
-      <c r="H90" s="172"/>
-      <c r="I90" s="178" t="s">
+      <c r="G90" s="178"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="153" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="91" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G91" s="172"/>
-      <c r="H91" s="172"/>
-      <c r="I91" s="178" t="s">
+      <c r="G91" s="178"/>
+      <c r="H91" s="178"/>
+      <c r="I91" s="153" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="92" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="172"/>
-      <c r="H92" s="172"/>
-      <c r="I92" s="178" t="s">
+      <c r="G92" s="178"/>
+      <c r="H92" s="178"/>
+      <c r="I92" s="153" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="93" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G93" s="172"/>
-      <c r="H93" s="172"/>
-      <c r="I93" s="178" t="s">
+      <c r="G93" s="178"/>
+      <c r="H93" s="178"/>
+      <c r="I93" s="153" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C2:C31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H17"/>
+    <mergeCell ref="G2:G93"/>
+    <mergeCell ref="H60:H93"/>
+    <mergeCell ref="H49:H59"/>
     <mergeCell ref="J42:J45"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I31"/>
@@ -4872,15 +4881,6 @@
     <mergeCell ref="I32:I34"/>
     <mergeCell ref="I35:I46"/>
     <mergeCell ref="H26:H48"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C2:C31"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H17"/>
-    <mergeCell ref="G2:G93"/>
-    <mergeCell ref="H60:H93"/>
-    <mergeCell ref="H49:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5002,10 +5002,10 @@
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="150"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,10 +5018,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="152"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5034,10 +5034,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="154"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,10 +5223,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="150"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5239,10 +5239,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="152"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5255,10 +5255,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="154"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5323,10 +5323,10 @@
       <c r="C2" s="18"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="150"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,10 +5339,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="152"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5355,10 +5355,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="154"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5478,10 +5478,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="150"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5494,10 +5494,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="152"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5510,10 +5510,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="154"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5587,7 +5587,7 @@
       <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="161" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -5596,51 +5596,51 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="150"/>
+      <c r="I2" s="156"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="156"/>
+      <c r="B3" s="162"/>
       <c r="C3" s="44" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="152"/>
+      <c r="I3" s="158"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="156"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="154"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="156"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="44" t="s">
         <v>67</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="156"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="44" t="s">
         <v>68</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="A7" s="42">
         <v>6</v>
       </c>
-      <c r="B7" s="156"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="44" t="s">
         <v>69</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="156"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="44" t="s">
         <v>70</v>
       </c>
@@ -5772,10 +5772,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="55"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="150"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5788,10 +5788,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="152"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5804,10 +5804,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="154"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5894,10 +5894,10 @@
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="150"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5910,10 +5910,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="152"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5926,10 +5926,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="154"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6023,7 +6023,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="163" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6032,15 +6032,15 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="157"/>
+      <c r="A2" s="163"/>
       <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="150"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6049,10 +6049,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="152"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6061,10 +6061,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="154"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6075,113 +6075,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="163" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="158" t="s">
+      <c r="K6" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="158"/>
+      <c r="L6" s="164"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="157"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="157"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="157"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="2" t="s">
         <v>113</v>
       </c>
@@ -6195,7 +6195,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="163" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6206,7 +6206,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="2" t="s">
         <v>118</v>
       </c>

--- a/Library_architecture.xlsx
+++ b/Library_architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/main x/GitHub Repo/Repository_architecture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Repository_architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1596" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{000EC04E-880C-40F9-8A8D-0211F1E3B859}"/>
+  <xr:revisionPtr revIDLastSave="1624" documentId="13_ncr:1_{D84D0752-E4BB-48DB-83F5-1B8FFA54D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44518E92-B031-4EDE-99B4-E1CC2A7A436D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control system" sheetId="5" r:id="rId1"/>
@@ -23,14 +23,12 @@
     <sheet name="Constants" sheetId="4" r:id="rId8"/>
     <sheet name="Math" sheetId="2" r:id="rId9"/>
     <sheet name="Aerial vehicle" sheetId="11" r:id="rId10"/>
-    <sheet name="Aerial vehicle-2" sheetId="12" r:id="rId11"/>
-    <sheet name="System architecture" sheetId="13" r:id="rId12"/>
-    <sheet name="Flight stack" sheetId="14" r:id="rId13"/>
-    <sheet name="Estimation layer" sheetId="15" r:id="rId14"/>
-    <sheet name="Control layer" sheetId="16" r:id="rId15"/>
-    <sheet name="Vehicle FCS" sheetId="17" r:id="rId16"/>
-    <sheet name="Vehicle FMS" sheetId="18" r:id="rId17"/>
-    <sheet name="Health monitoring and safety" sheetId="19" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId11"/>
+    <sheet name="Aerial vehicle-2" sheetId="12" r:id="rId12"/>
+    <sheet name="System architecture" sheetId="13" r:id="rId13"/>
+    <sheet name="Vehicle FCS" sheetId="17" r:id="rId14"/>
+    <sheet name="Vehicle FMS" sheetId="18" r:id="rId15"/>
+    <sheet name="Health monitoring and safety" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="287">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -736,9 +734,6 @@
     <t>Buck converter</t>
   </si>
   <si>
-    <t>Complex umber</t>
-  </si>
-  <si>
     <t>Algebra</t>
   </si>
   <si>
@@ -914,6 +909,9 @@
   </si>
   <si>
     <t>TTL</t>
+  </si>
+  <si>
+    <t>SONAR</t>
   </si>
 </sst>
 </file>
@@ -979,7 +977,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1035,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -1720,7 +1724,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2038,6 +2042,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2095,25 +2102,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2409,7 +2416,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9:P21"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,10 +2459,10 @@
       <c r="F2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2471,10 +2478,10 @@
       <c r="F3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="158"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2490,10 +2497,10 @@
       <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="160"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,7 +2660,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,19 +2675,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="171" t="s">
+      <c r="C1" s="172"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
       <c r="H1" s="56" t="s">
         <v>122</v>
       </c>
@@ -2693,27 +2700,27 @@
       <c r="K1" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="171" t="s">
+      <c r="L1" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="169" t="s">
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="169" t="s">
+      <c r="S1" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="165" t="s">
+      <c r="T1" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="166"/>
+      <c r="U1" s="167"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
+      <c r="A2" s="171"/>
       <c r="B2" s="109" t="s">
         <v>130</v>
       </c>
@@ -2762,10 +2769,10 @@
       <c r="Q2" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="168"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="169"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84">
@@ -3264,12 +3271,92 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C30089-60C5-452F-9A94-BDE05D9F4ADC}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86F05D0-180B-43C4-AE12-37977CC3422F}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+      <selection pane="bottomLeft" activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,19 +3372,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="172"/>
-      <c r="G1" s="173" t="s">
+      <c r="D1" s="172"/>
+      <c r="E1" s="173"/>
+      <c r="G1" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="173"/>
       <c r="K1" s="56" t="s">
         <v>122</v>
       </c>
@@ -3310,27 +3397,27 @@
       <c r="Q1" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="173" t="s">
+      <c r="S1" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="172"/>
-      <c r="Z1" s="169" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="173"/>
+      <c r="Z1" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="169" t="s">
+      <c r="AA1" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" s="165" t="s">
+      <c r="AB1" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" s="166"/>
+      <c r="AC1" s="167"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
+      <c r="A2" s="171"/>
       <c r="C2" s="93" t="s">
         <v>130</v>
       </c>
@@ -3379,10 +3466,10 @@
       <c r="X2" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="168"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="169"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="84">
@@ -3880,12 +3967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF7264C-E7A0-49C5-B2A0-72B8B547DC0E}">
   <dimension ref="A2:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,19 +3998,19 @@
         <v>165</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="178" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="179" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="179" t="s">
         <v>170</v>
       </c>
       <c r="I2" s="150" t="s">
@@ -3942,13 +4029,13 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="178"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="150" t="s">
         <v>176</v>
       </c>
@@ -3958,13 +4045,13 @@
         <v>177</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
       <c r="I4" s="150" t="s">
         <v>179</v>
       </c>
@@ -3973,12 +4060,12 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="178"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="180" t="s">
         <v>181</v>
       </c>
@@ -3990,12 +4077,12 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="178"/>
+      <c r="G6" s="179"/>
       <c r="H6" s="180"/>
       <c r="I6" s="154" t="s">
         <v>9</v>
@@ -4005,12 +4092,12 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="178"/>
+      <c r="G7" s="179"/>
       <c r="H7" s="180"/>
       <c r="I7" s="154" t="s">
         <v>11</v>
@@ -4020,12 +4107,12 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="178"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="178"/>
+      <c r="G8" s="179"/>
       <c r="H8" s="180"/>
       <c r="I8" s="154" t="s">
         <v>13</v>
@@ -4035,12 +4122,12 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="178"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="178"/>
+      <c r="G9" s="179"/>
       <c r="H9" s="180"/>
       <c r="I9" s="154" t="s">
         <v>14</v>
@@ -4050,12 +4137,12 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="178"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="155" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="178"/>
+      <c r="G10" s="179"/>
       <c r="H10" s="180"/>
       <c r="I10" s="154" t="s">
         <v>15</v>
@@ -4065,12 +4152,12 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="178"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="178"/>
+      <c r="G11" s="179"/>
       <c r="H11" s="180"/>
       <c r="I11" s="154" t="s">
         <v>16</v>
@@ -4080,12 +4167,12 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="178"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="178"/>
+      <c r="G12" s="179"/>
       <c r="H12" s="180"/>
       <c r="I12" s="154" t="s">
         <v>17</v>
@@ -4095,12 +4182,12 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="178"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="178"/>
+      <c r="G13" s="179"/>
       <c r="H13" s="180"/>
       <c r="I13" s="154" t="s">
         <v>18</v>
@@ -4110,12 +4197,12 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="178"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="178"/>
+      <c r="G14" s="179"/>
       <c r="H14" s="180"/>
       <c r="I14" s="154" t="s">
         <v>19</v>
@@ -4125,12 +4212,12 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="178"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="178"/>
+      <c r="G15" s="179"/>
       <c r="H15" s="180"/>
       <c r="I15" s="154" t="s">
         <v>20</v>
@@ -4140,14 +4227,14 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="179"/>
+      <c r="C16" s="178"/>
       <c r="D16" s="175" t="s">
         <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="178"/>
+      <c r="G16" s="179"/>
       <c r="H16" s="180"/>
       <c r="I16" s="154" t="s">
         <v>22</v>
@@ -4157,12 +4244,12 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="177"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="178"/>
+      <c r="G17" s="179"/>
       <c r="H17" s="180"/>
       <c r="I17" s="154" t="s">
         <v>23</v>
@@ -4172,13 +4259,13 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="177"/>
       <c r="E18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178" t="s">
+      <c r="G18" s="179"/>
+      <c r="H18" s="179" t="s">
         <v>196</v>
       </c>
       <c r="I18" s="150" t="s">
@@ -4188,15 +4275,15 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="179"/>
+      <c r="C19" s="178"/>
       <c r="D19" s="175" t="s">
         <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
       <c r="I19" s="150" t="s">
         <v>200</v>
       </c>
@@ -4204,13 +4291,13 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
       <c r="I20" s="150" t="s">
         <v>202</v>
       </c>
@@ -4218,15 +4305,15 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="179"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="175" t="s">
         <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178" t="s">
+      <c r="G21" s="179"/>
+      <c r="H21" s="179" t="s">
         <v>205</v>
       </c>
       <c r="I21" s="150" t="s">
@@ -4236,13 +4323,13 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
       <c r="I22" s="150" t="s">
         <v>208</v>
       </c>
@@ -4250,15 +4337,15 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="179"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="175" t="s">
         <v>209</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
       <c r="I23" s="150" t="s">
         <v>211</v>
       </c>
@@ -4266,12 +4353,12 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="177"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="178"/>
+      <c r="G24" s="179"/>
       <c r="H24" s="149" t="s">
         <v>213</v>
       </c>
@@ -4279,12 +4366,12 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="177"/>
       <c r="E25" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="178"/>
+      <c r="G25" s="179"/>
       <c r="H25" s="149" t="s">
         <v>215</v>
       </c>
@@ -4292,15 +4379,15 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="179"/>
+      <c r="C26" s="178"/>
       <c r="D26" s="175" t="s">
         <v>216</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178" t="s">
+      <c r="G26" s="179"/>
+      <c r="H26" s="179" t="s">
         <v>218</v>
       </c>
       <c r="I26" s="150" t="s">
@@ -4313,14 +4400,14 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="177"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="176"/>
       <c r="E27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="174" t="s">
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="181" t="s">
         <v>91</v>
       </c>
       <c r="J27" s="150" t="s">
@@ -4330,14 +4417,14 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="176"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="177"/>
       <c r="E28" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="174"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="181"/>
       <c r="J28" s="150" t="s">
         <v>224</v>
       </c>
@@ -4345,530 +4432,521 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="163" t="s">
+      <c r="C29" s="178"/>
+      <c r="D29" s="164" t="s">
         <v>225</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="174" t="s">
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="150" t="s">
         <v>227</v>
-      </c>
-      <c r="J29" s="150" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="163"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="164"/>
       <c r="E30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="150" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="178"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="179"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="150" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="174" t="s">
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="181" t="s">
         <v>95</v>
       </c>
       <c r="J32" s="150" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="174"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="181"/>
       <c r="J33" s="150" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="174"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="181"/>
       <c r="J34" s="150" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="174" t="s">
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="181" t="s">
         <v>97</v>
       </c>
       <c r="J35" s="150" t="s">
         <v>98</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="174"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="181"/>
       <c r="J36" s="150" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="174"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="150" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="174"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="181"/>
       <c r="J38" s="150" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="174"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="181"/>
       <c r="J39" s="150" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="174"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="181"/>
       <c r="J40" s="150" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="179"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="150" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="178"/>
-      <c r="H41" s="178"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="150" t="s">
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="181" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174" t="s">
-        <v>238</v>
       </c>
       <c r="K42" s="151" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="181"/>
       <c r="K43" s="151" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="181"/>
       <c r="K44" s="151" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="174"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="181"/>
       <c r="K45" s="151" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="174"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="181"/>
       <c r="J46" s="150" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="179"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="150" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="150" t="s">
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="179"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="150" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="150" t="s">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="179"/>
+      <c r="H49" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="154" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G49" s="178"/>
-      <c r="H49" s="178" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="154" t="s">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="154" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="154" t="s">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="154" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51" s="178"/>
-      <c r="H51" s="178"/>
-      <c r="I51" s="154" t="s">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="179"/>
+      <c r="H52" s="179"/>
+      <c r="I52" s="154" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="154" t="s">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="179"/>
+      <c r="H53" s="179"/>
+      <c r="I53" s="154" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="154" t="s">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="179"/>
+      <c r="H54" s="179"/>
+      <c r="I54" s="154" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="154" t="s">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="179"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="154" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="154" t="s">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="179"/>
+      <c r="H56" s="179"/>
+      <c r="I56" s="150" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="150" t="s">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="179"/>
+      <c r="H57" s="179"/>
+      <c r="I57" s="150" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="150" t="s">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="179"/>
+      <c r="H58" s="179"/>
+      <c r="I58" s="150" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="150" t="s">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="179"/>
+      <c r="H59" s="179"/>
+      <c r="I59" s="152" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="152" t="s">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="179"/>
+      <c r="H60" s="179" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G60" s="178"/>
-      <c r="H60" s="178" t="s">
+      <c r="I60" s="153" t="s">
         <v>253</v>
       </c>
-      <c r="I60" s="153" t="s">
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="179"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="153" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="153" t="s">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="179"/>
+      <c r="H62" s="179"/>
+      <c r="I62" s="153" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="153" t="s">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" s="179"/>
+      <c r="H63" s="179"/>
+      <c r="I63" s="153" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="153" t="s">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="179"/>
+      <c r="H64" s="179"/>
+      <c r="I64" s="153" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="153" t="s">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="153" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="153" t="s">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="179"/>
+      <c r="H66" s="179"/>
+      <c r="I66" s="153" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="153" t="s">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="179"/>
+      <c r="H67" s="179"/>
+      <c r="I67" s="153" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="153" t="s">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="179"/>
+      <c r="H68" s="179"/>
+      <c r="I68" s="153" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="153" t="s">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="179"/>
+      <c r="H69" s="179"/>
+      <c r="I69" s="153" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="153" t="s">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="179"/>
+      <c r="H70" s="179"/>
+      <c r="I70" s="153" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G70" s="178"/>
-      <c r="H70" s="178"/>
-      <c r="I70" s="153" t="s">
+    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="153" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G71" s="178"/>
-      <c r="H71" s="178"/>
-      <c r="I71" s="153" t="s">
+    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="179"/>
+      <c r="H72" s="179"/>
+      <c r="I72" s="153" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="153" t="s">
+    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="153" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
-      <c r="I73" s="153" t="s">
+    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="179"/>
+      <c r="H74" s="179"/>
+      <c r="I74" s="153" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
-      <c r="I74" s="153" t="s">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="179"/>
+      <c r="H75" s="179"/>
+      <c r="I75" s="153" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="153" t="s">
+    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="179"/>
+      <c r="H76" s="179"/>
+      <c r="I76" s="153" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="153" t="s">
+    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="179"/>
+      <c r="H77" s="179"/>
+      <c r="I77" s="153" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="153" t="s">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="179"/>
+      <c r="H78" s="179"/>
+      <c r="I78" s="153" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
-      <c r="I78" s="153" t="s">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="179"/>
+      <c r="H79" s="179"/>
+      <c r="I79" s="153" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="178"/>
-      <c r="H79" s="178"/>
-      <c r="I79" s="153" t="s">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="179"/>
+      <c r="H80" s="179"/>
+      <c r="I80" s="153" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="178"/>
-      <c r="H80" s="178"/>
-      <c r="I80" s="153" t="s">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="179"/>
+      <c r="H81" s="179"/>
+      <c r="I81" s="153" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G81" s="178"/>
-      <c r="H81" s="178"/>
-      <c r="I81" s="153" t="s">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="179"/>
+      <c r="H82" s="179"/>
+      <c r="I82" s="153" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G82" s="178"/>
-      <c r="H82" s="178"/>
-      <c r="I82" s="153" t="s">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="179"/>
+      <c r="H83" s="179"/>
+      <c r="I83" s="153" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G83" s="178"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="153" t="s">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="179"/>
+      <c r="H84" s="179"/>
+      <c r="I84" s="153" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G84" s="178"/>
-      <c r="H84" s="178"/>
-      <c r="I84" s="153" t="s">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="179"/>
+      <c r="H85" s="179"/>
+      <c r="I85" s="153" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G85" s="178"/>
-      <c r="H85" s="178"/>
-      <c r="I85" s="153" t="s">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="179"/>
+      <c r="H86" s="179"/>
+      <c r="I86" s="153" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G86" s="178"/>
-      <c r="H86" s="178"/>
-      <c r="I86" s="153" t="s">
-        <v>280</v>
-      </c>
-    </row>
     <row r="87" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G87" s="178"/>
-      <c r="H87" s="178"/>
+      <c r="G87" s="179"/>
+      <c r="H87" s="179"/>
       <c r="I87" s="153" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G88" s="178"/>
-      <c r="H88" s="178"/>
+      <c r="G88" s="179"/>
+      <c r="H88" s="179"/>
       <c r="I88" s="153" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="179"/>
+      <c r="H89" s="179"/>
+      <c r="I89" s="153" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G89" s="178"/>
-      <c r="H89" s="178"/>
-      <c r="I89" s="153" t="s">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="179"/>
+      <c r="H90" s="179"/>
+      <c r="I90" s="153" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="153" t="s">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G91" s="179"/>
+      <c r="H91" s="179"/>
+      <c r="I91" s="153" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G91" s="178"/>
-      <c r="H91" s="178"/>
-      <c r="I91" s="153" t="s">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G92" s="179"/>
+      <c r="H92" s="179"/>
+      <c r="I92" s="153" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="178"/>
-      <c r="H92" s="178"/>
-      <c r="I92" s="153" t="s">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="179"/>
+      <c r="H93" s="179"/>
+      <c r="I93" s="153" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G93" s="178"/>
-      <c r="H93" s="178"/>
-      <c r="I93" s="153" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C2:C31"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H17"/>
-    <mergeCell ref="G2:G93"/>
-    <mergeCell ref="H60:H93"/>
-    <mergeCell ref="H49:H59"/>
     <mergeCell ref="J42:J45"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I31"/>
@@ -4881,29 +4959,26 @@
     <mergeCell ref="I32:I34"/>
     <mergeCell ref="I35:I46"/>
     <mergeCell ref="H26:H48"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C2:C31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H17"/>
+    <mergeCell ref="G2:G93"/>
+    <mergeCell ref="H60:H93"/>
+    <mergeCell ref="H49:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7747E6-62D3-4152-BD4D-7F49D1734AF5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D00BE0B-CDDF-425B-AD29-406227FC3C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A497FCDD-7AFC-448F-BBBB-19B8588E5BE4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,32 +4988,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9774AD9-F210-408D-8DE0-DC5FA13F3AA3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A497FCDD-7AFC-448F-BBBB-19B8588E5BE4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ABF146-28AE-46B6-9D9F-239E5A87C7F8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4950,7 +4999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4946E28-29BC-43B7-9786-7F012DB60FDA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4970,7 +5019,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5002,10 +5051,10 @@
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,10 +5067,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5034,10 +5083,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,10 +5272,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5239,10 +5288,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5255,10 +5304,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5323,10 +5372,10 @@
       <c r="C2" s="18"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,10 +5388,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5355,10 +5404,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5478,10 +5527,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5494,10 +5543,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5510,10 +5559,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5587,7 +5636,7 @@
       <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="162" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -5596,51 +5645,51 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="44" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="158"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="162"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="160"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="44" t="s">
         <v>67</v>
       </c>
@@ -5652,7 +5701,7 @@
       <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="44" t="s">
         <v>68</v>
       </c>
@@ -5664,7 +5713,7 @@
       <c r="A7" s="42">
         <v>6</v>
       </c>
-      <c r="B7" s="162"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="44" t="s">
         <v>69</v>
       </c>
@@ -5676,7 +5725,7 @@
       <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="44" t="s">
         <v>70</v>
       </c>
@@ -5772,10 +5821,10 @@
       <c r="C2" s="17"/>
       <c r="D2" s="55"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5788,10 +5837,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5804,10 +5853,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5894,10 +5943,10 @@
       <c r="C2" s="31"/>
       <c r="D2" s="35"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5910,10 +5959,10 @@
       <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5926,10 +5975,10 @@
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="160"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6013,7 +6062,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6023,7 +6072,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6032,15 +6081,15 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
+      <c r="A2" s="164"/>
       <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="156"/>
+      <c r="E2" s="157"/>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6049,10 +6098,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6061,10 +6110,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="160"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6075,113 +6124,113 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="164" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="K6" s="164" t="s">
+      <c r="K6" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="164"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
+      <c r="A10" s="164"/>
       <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
+      <c r="A12" s="164"/>
       <c r="B12" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
+      <c r="A14" s="164"/>
       <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
+      <c r="A16" s="164"/>
       <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
+      <c r="A20" s="164"/>
       <c r="B20" s="2" t="s">
         <v>113</v>
       </c>
@@ -6195,7 +6244,7 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="164" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6206,7 +6255,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="2" t="s">
         <v>118</v>
       </c>
